--- a/Excel/Room Data.xlsx
+++ b/Excel/Room Data.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Ground Floor (2)" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ground Floor'!$A$3:$A$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ground Floor'!$A$3:$L$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ground Floor (2)'!$A$1:$A$188</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Second Floor'!$A$2:$A$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Third Floor'!$A$2:$A$50</definedName>
@@ -28,7 +28,7 @@
     <author>hplaptop</author>
   </authors>
   <commentList>
-    <comment ref="N14" authorId="0">
+    <comment ref="P14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="255">
   <si>
     <t>Name of Room</t>
   </si>
@@ -631,6 +631,198 @@
   </si>
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>Space per room</t>
+  </si>
+  <si>
+    <t>Occupancy</t>
+  </si>
+  <si>
+    <t>Power House</t>
+  </si>
+  <si>
+    <t>Work Area</t>
+  </si>
+  <si>
+    <t>Storage Room</t>
+  </si>
+  <si>
+    <t>Maintenance Office</t>
+  </si>
+  <si>
+    <t>Female toilet</t>
+  </si>
+  <si>
+    <t>Minor Operating Room</t>
+  </si>
+  <si>
+    <t>Equipment and  supply storage area</t>
+  </si>
+  <si>
+    <t>Examination/Treatment and Observation area</t>
+  </si>
+  <si>
+    <t>Cadaver Holding Room</t>
+  </si>
+  <si>
+    <t>Supply Room</t>
+  </si>
+  <si>
+    <t>Bulk Storage</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Medical Records Office</t>
+  </si>
+  <si>
+    <t>Medical Records</t>
+  </si>
+  <si>
+    <t>PHILHEALTH</t>
+  </si>
+  <si>
+    <t>Doctor's Duty</t>
+  </si>
+  <si>
+    <t>Nurse Station (ER)</t>
+  </si>
+  <si>
+    <t>EMERGENCY ROOM</t>
+  </si>
+  <si>
+    <t>E.R. Waiting area (ER)</t>
+  </si>
+  <si>
+    <t>Work Area (laboratory)</t>
+  </si>
+  <si>
+    <t>Pathology office</t>
+  </si>
+  <si>
+    <t>Waiting area</t>
+  </si>
+  <si>
+    <t>OPD clinic dental 1</t>
+  </si>
+  <si>
+    <t>OPD clinic dental 2</t>
+  </si>
+  <si>
+    <t>Canteen</t>
+  </si>
+  <si>
+    <t>Garbage Disposal area</t>
+  </si>
+  <si>
+    <t>OPD clinic Ob-gyne</t>
+  </si>
+  <si>
+    <t>Staff Dining</t>
+  </si>
+  <si>
+    <t>Dietary</t>
+  </si>
+  <si>
+    <t>Dietician's Office</t>
+  </si>
+  <si>
+    <t>Supply Receiving Area</t>
+  </si>
+  <si>
+    <t>Cold Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry storage </t>
+  </si>
+  <si>
+    <t>Cooking Area</t>
+  </si>
+  <si>
+    <t>Ultrasound</t>
+  </si>
+  <si>
+    <t>OPD records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPD Info. And admitting </t>
+  </si>
+  <si>
+    <t>OPD clinic surgery 1</t>
+  </si>
+  <si>
+    <t>OPD clinic surgery 2</t>
+  </si>
+  <si>
+    <t>Film File Storage</t>
+  </si>
+  <si>
+    <t>Radiologist Office</t>
+  </si>
+  <si>
+    <t>Dark Room</t>
+  </si>
+  <si>
+    <t>Control Booth</t>
+  </si>
+  <si>
+    <t>Dress Booth (xray room)</t>
+  </si>
+  <si>
+    <t>OPD Clinic Pedia 1</t>
+  </si>
+  <si>
+    <t>OPD Clinic Pedia 2</t>
+  </si>
+  <si>
+    <t>OPD Records</t>
+  </si>
+  <si>
+    <t>OPD info. And admitting</t>
+  </si>
+  <si>
+    <t>OPD Clinic Medical 1</t>
+  </si>
+  <si>
+    <t>OPD Clinic Medical 2</t>
+  </si>
+  <si>
+    <t>Hospital Main Lobby</t>
+  </si>
+  <si>
+    <t>Waste Disposal Area</t>
+  </si>
+  <si>
+    <t>X-RAY ROOM</t>
+  </si>
+  <si>
+    <t>Pressing Area</t>
+  </si>
+  <si>
+    <t>Linen Storage 1</t>
+  </si>
+  <si>
+    <t>Linen Storage 2</t>
+  </si>
+  <si>
+    <t>Linen Office</t>
+  </si>
+  <si>
+    <t>Admin Office</t>
+  </si>
+  <si>
+    <t>Washing Area</t>
+  </si>
+  <si>
+    <t>Receiving Sorting Area</t>
+  </si>
+  <si>
+    <t>Administrative office</t>
+  </si>
+  <si>
+    <t>Social Welfare</t>
   </si>
 </sst>
 </file>
@@ -684,7 +876,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,8 +949,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF91A15F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF276189"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -884,12 +1094,147 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -979,13 +1324,223 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF276189"/>
+      <color rgb="FF91A15F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1284,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,1275 +1850,1665 @@
     <col min="1" max="1" width="44.140625" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="34"/>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N2">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P2">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="G3" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="H3" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="I3" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="J3" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="K3" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="L3" s="59" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="46">
+        <v>37.438600000000001</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46" t="str">
+        <f>IFERROR(B4/D4, "")</f>
+        <v/>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>37.438600000000001</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="32">
-        <v>1</v>
-      </c>
-      <c r="N4">
+      <c r="P4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="49">
         <v>9.6511999999999993</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49" t="str">
+        <f t="shared" ref="E5:E68" si="0">IFERROR(B5/D5, "")</f>
+        <v/>
+      </c>
+      <c r="F5" s="49">
         <v>8</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="49">
         <v>15</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="N5">
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="P5">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="49">
         <v>7.8174999999999999</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49">
         <v>0.6</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="N6">
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
+      <c r="P6">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="49">
         <v>16.3095</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="49">
         <v>2.3875000000000002</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="N7">
+      <c r="D7" s="49">
+        <v>15</v>
+      </c>
+      <c r="E7" s="49">
+        <f t="shared" si="0"/>
+        <v>1.0872999999999999</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="P7">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="49">
         <v>18.299099999999999</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="49">
         <v>18.346399999999999</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="49">
         <v>23.3886</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="49">
         <v>12</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="49"/>
+      <c r="E10" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" s="49">
         <v>15</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="49">
         <v>30</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="50"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="49">
+        <v>5.61</v>
+      </c>
+      <c r="C11" s="49">
+        <v>11</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
+      <c r="P11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="49">
+        <v>42.192500000000003</v>
+      </c>
+      <c r="C12" s="49">
+        <v>3.7086999999999999</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="49">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
-        <v>5.61</v>
-      </c>
-      <c r="C11" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2">
+      <c r="G12" s="49">
+        <v>15</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
+      <c r="P12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="49">
+        <v>19.637799999999999</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="49">
+        <v>31.289300000000001</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
+      <c r="P14" s="33"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="49">
+        <v>3.9771999999999998</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="49">
+        <v>20.748699999999999</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="49">
+        <v>17.9512</v>
+      </c>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49">
+        <v>15</v>
+      </c>
+      <c r="E17" s="49">
+        <f t="shared" si="0"/>
+        <v>1.1967466666666666</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="50"/>
+      <c r="P17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="49">
+        <v>18.630800000000001</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="49">
+        <v>8</v>
+      </c>
+      <c r="G18" s="49">
+        <v>15</v>
+      </c>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="49">
+        <v>17.137799999999999</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49">
+        <v>15</v>
+      </c>
+      <c r="E19" s="49">
+        <f t="shared" si="0"/>
+        <v>1.14252</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="49">
+        <v>11.606199999999999</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49">
+        <v>15</v>
+      </c>
+      <c r="E20" s="49">
+        <f t="shared" si="0"/>
+        <v>0.77374666666666658</v>
+      </c>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="49">
+        <v>2.9773000000000001</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" s="49">
+        <v>32.86</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="49">
+        <v>8</v>
+      </c>
+      <c r="G24" s="49">
+        <v>15</v>
+      </c>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49">
+        <v>15</v>
+      </c>
+      <c r="E25" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="49">
+        <v>12.6775</v>
+      </c>
+      <c r="C26" s="49">
+        <v>3.2363</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="49">
+        <v>14.3811</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="49">
+        <v>8</v>
+      </c>
+      <c r="G27" s="49">
+        <v>15</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" s="49">
+        <v>14.3811</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="49">
+        <v>8</v>
+      </c>
+      <c r="G28" s="49">
+        <v>15</v>
+      </c>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="49">
+        <v>8.9650999999999996</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" s="49">
+        <v>14.435600000000001</v>
+      </c>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="49">
+        <v>8</v>
+      </c>
+      <c r="G30" s="49">
+        <v>15</v>
+      </c>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="50"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="49">
+        <v>14.435600000000001</v>
+      </c>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" s="49">
+        <v>8</v>
+      </c>
+      <c r="G31" s="49">
+        <v>15</v>
+      </c>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="50"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="49">
+        <v>5.4874999999999998</v>
+      </c>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="50"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="49">
+        <v>5.51</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="50"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="49">
+        <v>5.6363000000000003</v>
+      </c>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="50"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" s="49">
+        <v>5.5202999999999998</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49">
         <v>0.6</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="N11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>42.192500000000003</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3.7086999999999999</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="50"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" s="49">
+        <v>9.1492000000000004</v>
+      </c>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49">
         <v>15</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="N12">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>19.637799999999999</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>31.289300000000001</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="N14" s="33"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3.9771999999999998</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
-        <v>20.748699999999999</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2">
-        <v>17.9512</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="N17">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="E36" s="49">
+        <f t="shared" si="0"/>
+        <v>0.60994666666666675</v>
+      </c>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="50"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" s="49">
+        <v>4.9522000000000004</v>
+      </c>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="50"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38" s="49">
+        <v>25.253799999999998</v>
+      </c>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="50"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="50"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" s="49">
+        <v>14.3811</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="50"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" s="49">
+        <v>14.3811</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="50"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" s="49">
+        <v>10.417999999999999</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="50"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" s="49">
+        <v>9.9804999999999993</v>
+      </c>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="50"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="49">
+        <v>14.435600000000001</v>
+      </c>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="50"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" s="49">
+        <v>14.435600000000001</v>
+      </c>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="50"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="50"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" s="49">
+        <v>14.363899999999999</v>
+      </c>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="50"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="50"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" s="49">
+        <v>8.4309999999999992</v>
+      </c>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="50"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" s="49">
+        <v>8.3137000000000008</v>
+      </c>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="50"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="50"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B52" s="49">
+        <v>8.4375</v>
+      </c>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
-        <v>18.630800000000001</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="4">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="E52" s="49">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="50"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" s="49">
+        <v>13.606999999999999</v>
+      </c>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49">
         <v>15</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2">
-        <v>17.137799999999999</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="2">
-        <v>11.606199999999999</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2.9773000000000001</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="2">
-        <v>32.86</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="4">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="E53" s="49">
+        <f t="shared" si="0"/>
+        <v>0.90713333333333324</v>
+      </c>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="50"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="49">
+        <v>17.259899999999998</v>
+      </c>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="50"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="50"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56" s="49">
+        <v>17.1267</v>
+      </c>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="50"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" s="49">
+        <v>8.5710999999999995</v>
+      </c>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="50"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" s="49">
+        <v>35.317700000000002</v>
+      </c>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49">
         <v>15</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2">
-        <v>12.6775</v>
-      </c>
-      <c r="C26" s="2">
-        <v>3.2363</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="2">
-        <v>14.3811</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="4">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="E58" s="49">
+        <f t="shared" si="0"/>
+        <v>2.3545133333333337</v>
+      </c>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="50"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" s="49">
+        <v>13.5984</v>
+      </c>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="50"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="49">
+        <v>17.0428</v>
+      </c>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="50"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="49">
+        <v>10.441700000000001</v>
+      </c>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="50"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" s="49">
+        <v>11.591900000000001</v>
+      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="50"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B63" s="49">
+        <v>19.076899999999998</v>
+      </c>
+      <c r="C63" s="49">
+        <v>2.5344000000000002</v>
+      </c>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="50"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="49">
+        <v>34.215200000000003</v>
+      </c>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="50"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="B65" s="49">
+        <v>2.5941000000000001</v>
+      </c>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="50"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" s="49">
+        <v>1.9624999999999999</v>
+      </c>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="50"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B67" s="49">
+        <v>5.7183999999999999</v>
+      </c>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="50"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" s="49">
+        <v>9.2249999999999996</v>
+      </c>
+      <c r="C68" s="49">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="D68" s="49">
         <v>15</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="2">
-        <v>14.3811</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="4">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2">
-        <v>15</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2">
-        <v>8.9650999999999996</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="2">
-        <v>14.435600000000001</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="4">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2">
-        <v>15</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="2">
-        <v>14.435600000000001</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2">
-        <v>15</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="2">
-        <v>5.4874999999999998</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="2">
-        <v>5.51</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="2">
-        <v>5.6363000000000003</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="2">
-        <v>5.5202999999999998</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="2">
-        <v>9.1492000000000004</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="2">
-        <v>4.9522000000000004</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="2">
-        <v>25.253799999999998</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="2">
-        <v>14.3811</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="2">
-        <v>14.3811</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="2">
-        <v>10.417999999999999</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="2">
-        <v>9.9804999999999993</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="2">
-        <v>14.435600000000001</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="2">
-        <v>14.435600000000001</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="2">
-        <v>14.363899999999999</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="2">
-        <v>8.4309999999999992</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="2">
-        <v>8.3137000000000008</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="2">
-        <v>8.4375</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="2">
-        <v>13.606999999999999</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="2">
-        <v>17.259899999999998</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="2">
-        <v>17.1267</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="2">
-        <v>8.5710999999999995</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="2">
-        <v>35.317700000000002</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="2">
-        <v>13.5984</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="2">
-        <v>17.0428</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="2">
-        <v>10.441700000000001</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62" s="2">
-        <v>11.591900000000001</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="2">
-        <v>19.076899999999998</v>
-      </c>
-      <c r="C63" s="2">
+      <c r="E68" s="49">
+        <f t="shared" si="0"/>
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="50"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B69" s="49">
+        <v>38.032499999999999</v>
+      </c>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49" t="str">
+        <f t="shared" ref="E69:E73" si="1">IFERROR(B69/D69, "")</f>
+        <v/>
+      </c>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="50"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="49">
+        <v>50.888100000000001</v>
+      </c>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="50"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="B71" s="49">
+        <v>27.005600000000001</v>
+      </c>
+      <c r="C71" s="49">
         <v>2.5344000000000002</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="2">
-        <v>34.215200000000003</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" s="2">
-        <v>2.5941000000000001</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="2">
-        <v>1.9624999999999999</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B67" s="2">
-        <v>5.7183999999999999</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" s="2">
-        <v>9.2249999999999996</v>
-      </c>
-      <c r="C68" s="2">
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" s="2">
-        <v>38.032499999999999</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="2">
-        <v>50.888100000000001</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="2">
-        <v>27.005600000000001</v>
-      </c>
-      <c r="C71" s="2">
-        <v>2.5344000000000002</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="2">
+      <c r="D71" s="49"/>
+      <c r="E71" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="50"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="49">
         <v>2.2799999999999998</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="3">
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="50"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" s="54">
         <v>181.69919999999999</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I74" s="7"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="55"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K74" s="6"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>165</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A73"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <conditionalFormatting sqref="D4:D73">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B73">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E73">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:L73">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:L73">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2574,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:I62"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/Room Data.xlsx
+++ b/Excel/Room Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\School\Aircon\Aircon\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893215DC-BF72-4AB1-97B7-DC661E978E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ground Floor" sheetId="1" r:id="rId1"/>
@@ -18,17 +24,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Second Floor'!$A$2:$A$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Third Floor'!$A$2:$A$50</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hplaptop</author>
   </authors>
   <commentList>
-    <comment ref="P14" authorId="0">
+    <comment ref="P14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="263">
   <si>
     <t>Name of Room</t>
   </si>
@@ -823,12 +837,36 @@
   </si>
   <si>
     <t>Social Welfare</t>
+  </si>
+  <si>
+    <t>Type of Window</t>
+  </si>
+  <si>
+    <t>fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rotating</t>
+  </si>
+  <si>
+    <t>rorating</t>
+  </si>
+  <si>
+    <t>awning</t>
+  </si>
+  <si>
+    <t>sliding</t>
+  </si>
+  <si>
+    <t>rotating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1315,15 +1353,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1377,52 +1406,21 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1595,7 +1593,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1628,9 +1626,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1663,6 +1678,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1838,33 +1870,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="21.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="57"/>
       <c r="P1" t="s">
         <v>190</v>
       </c>
@@ -1875,1609 +1908,1769 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="56" t="s">
         <v>166</v>
       </c>
+      <c r="M3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="43">
         <v>37.438600000000001</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46" t="str">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43" t="str">
         <f>IFERROR(B4/D4, "")</f>
         <v/>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47">
-        <v>1</v>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="44"/>
+      <c r="M4" t="s">
+        <v>257</v>
       </c>
       <c r="P4">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="46">
         <v>9.6511999999999993</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49" t="str">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46" t="str">
         <f t="shared" ref="E5:E68" si="0">IFERROR(B5/D5, "")</f>
         <v/>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="46">
         <v>8</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="46">
         <v>15</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
       <c r="P5">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="46">
         <v>7.8174999999999999</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49" t="str">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49">
+      <c r="F6" s="46"/>
+      <c r="G6" s="46">
         <v>0.6</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="47"/>
       <c r="P6">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="46">
         <v>16.3095</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="46">
         <v>2.3875000000000002</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="46">
         <v>15</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="46">
         <f t="shared" si="0"/>
         <v>1.0872999999999999</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+      <c r="M7" t="s">
+        <v>258</v>
+      </c>
       <c r="P7">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="46">
         <v>18.299099999999999</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49" t="str">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="50"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="47"/>
+      <c r="M8" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="46">
         <v>18.346399999999999</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49" t="str">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="50"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="47"/>
+      <c r="M9" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="46">
         <v>23.3886</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="46">
         <v>12</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49" t="str">
+      <c r="D10" s="46"/>
+      <c r="E10" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="46">
         <v>15</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="46">
         <v>30</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="50"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="47"/>
+      <c r="M10" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="46">
         <v>5.61</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="46">
         <v>11</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49" t="str">
+      <c r="D11" s="46"/>
+      <c r="E11" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49">
+      <c r="F11" s="46"/>
+      <c r="G11" s="46">
         <v>0.6</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="47"/>
+      <c r="M11" t="s">
+        <v>256</v>
+      </c>
       <c r="P11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="46">
         <v>42.192500000000003</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="46">
         <v>3.7086999999999999</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49" t="str">
+      <c r="D12" s="46"/>
+      <c r="E12" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="46">
         <v>8</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="46">
         <v>15</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
+      <c r="M12" t="s">
+        <v>260</v>
+      </c>
       <c r="P12">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="46">
         <v>19.637799999999999</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49" t="str">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
+      <c r="M13" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="46">
         <v>31.289300000000001</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49" t="str">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="47"/>
+      <c r="M14" t="s">
+        <v>260</v>
+      </c>
       <c r="P14" s="33"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="46">
         <v>3.9771999999999998</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49" t="str">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="47"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="46">
         <v>20.748699999999999</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49" t="str">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="50"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="47"/>
+      <c r="M16" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="46">
         <v>17.9512</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46">
         <v>15</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="46">
         <f t="shared" si="0"/>
         <v>1.1967466666666666</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="50"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="47"/>
+      <c r="M17" t="s">
+        <v>260</v>
+      </c>
       <c r="P17">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="46">
         <v>18.630800000000001</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49" t="str">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="46">
         <v>8</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="46">
         <v>15</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
+      <c r="M18" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="46">
         <v>17.137799999999999</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49">
+      <c r="C19" s="46"/>
+      <c r="D19" s="46">
         <v>15</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="46">
         <f t="shared" si="0"/>
         <v>1.14252</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="50"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
+      <c r="M19" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="46">
         <v>11.606199999999999</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46">
         <v>15</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="46">
         <f t="shared" si="0"/>
         <v>0.77374666666666658</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="50"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47"/>
+      <c r="M20" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="46">
         <v>2.9773000000000001</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49" t="str">
+      <c r="D21" s="46"/>
+      <c r="E21" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="50"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="47"/>
+      <c r="M21" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49" t="str">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="50"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="47"/>
+      <c r="M22" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49" t="str">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="50"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="47"/>
+      <c r="M23" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="46">
         <v>32.86</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49" t="str">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="46">
         <v>8</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="46">
         <v>15</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="50"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="47"/>
+      <c r="M24" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49">
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46">
         <v>15</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="50"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="47"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="46">
         <v>12.6775</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="46">
         <v>3.2363</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49" t="str">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="47"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="46">
         <v>14.3811</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49" t="str">
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="46">
         <v>8</v>
       </c>
-      <c r="G27" s="49">
+      <c r="G27" s="46">
         <v>15</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="50"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
+      <c r="M27" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="46">
         <v>14.3811</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49" t="str">
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="46">
         <v>8</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="46">
         <v>15</v>
       </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="50"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="47"/>
+      <c r="M28" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="46">
         <v>8.9650999999999996</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49" t="str">
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="50"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="47"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="46">
         <v>14.435600000000001</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49" t="str">
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="46">
         <v>8</v>
       </c>
-      <c r="G30" s="49">
+      <c r="G30" s="46">
         <v>15</v>
       </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="50"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="47"/>
+      <c r="M30" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="46">
         <v>14.435600000000001</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49" t="str">
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="46">
         <v>8</v>
       </c>
-      <c r="G31" s="49">
+      <c r="G31" s="46">
         <v>15</v>
       </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="50"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="47"/>
+      <c r="M31" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="46">
         <v>5.4874999999999998</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49" t="str">
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="50"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="47"/>
+      <c r="M32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="46">
         <v>5.51</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49" t="str">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="50"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="47"/>
+      <c r="M33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B34" s="46">
         <v>5.6363000000000003</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49" t="str">
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="50"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="47"/>
+      <c r="M34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="B35" s="49">
+      <c r="B35" s="46">
         <v>5.5202999999999998</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49" t="str">
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49">
+      <c r="F35" s="46"/>
+      <c r="G35" s="46">
         <v>0.6</v>
       </c>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="50"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="47"/>
+      <c r="M35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="46">
         <v>9.1492000000000004</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49">
+      <c r="C36" s="46"/>
+      <c r="D36" s="46">
         <v>15</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="46">
         <f t="shared" si="0"/>
         <v>0.60994666666666675</v>
       </c>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="50"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="47"/>
+      <c r="M36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="46">
         <v>4.9522000000000004</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49" t="str">
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="50"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="47"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="B38" s="49">
+      <c r="B38" s="46">
         <v>25.253799999999998</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49" t="str">
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="50"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="51" t="s">
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="47"/>
+      <c r="M38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49" t="str">
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="50"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="47"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="B40" s="49">
+      <c r="B40" s="46">
         <v>14.3811</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49" t="str">
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="50"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="47"/>
+      <c r="M40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B41" s="46">
         <v>14.3811</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49" t="str">
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="50"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="47"/>
+      <c r="M41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="46">
         <v>10.417999999999999</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49" t="str">
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49">
+      <c r="F42" s="46"/>
+      <c r="G42" s="46">
         <v>0.6</v>
       </c>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="50"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="47"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="46">
         <v>9.9804999999999993</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49" t="str">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="50"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="47"/>
+      <c r="M43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="46">
         <v>14.435600000000001</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49" t="str">
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="50"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="48" t="s">
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="47"/>
+      <c r="M44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="46">
         <v>14.435600000000001</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49" t="str">
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="50"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="47"/>
+      <c r="M45" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49" t="str">
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="50"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="47"/>
+      <c r="M46" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="B47" s="49">
+      <c r="B47" s="46">
         <v>14.363899999999999</v>
       </c>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49" t="str">
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="50"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="47"/>
+      <c r="M47" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49" t="str">
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="50"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="47"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="46">
         <v>8.4309999999999992</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49" t="str">
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="50"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="48" t="s">
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="47"/>
+      <c r="M49" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="46">
         <v>8.3137000000000008</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49" t="str">
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="50"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="47"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49" t="str">
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="50"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="47"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="B52" s="49">
+      <c r="B52" s="46">
         <v>8.4375</v>
       </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49">
+      <c r="C52" s="46"/>
+      <c r="D52" s="46">
         <v>15</v>
       </c>
-      <c r="E52" s="49">
+      <c r="E52" s="46">
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="50"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="47"/>
+      <c r="M52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B53" s="49">
+      <c r="B53" s="46">
         <v>13.606999999999999</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49">
+      <c r="C53" s="46"/>
+      <c r="D53" s="46">
         <v>15</v>
       </c>
-      <c r="E53" s="49">
+      <c r="E53" s="46">
         <f t="shared" si="0"/>
         <v>0.90713333333333324</v>
       </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="50"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="47"/>
+      <c r="M53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="49">
+      <c r="B54" s="46">
         <v>17.259899999999998</v>
       </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49" t="str">
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="50"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="51" t="s">
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="47"/>
+      <c r="M54" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49" t="str">
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="50"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="47"/>
+      <c r="M55" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="49">
+      <c r="B56" s="46">
         <v>17.1267</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49" t="str">
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="50"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="48" t="s">
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="47"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="B57" s="49">
+      <c r="B57" s="46">
         <v>8.5710999999999995</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49" t="str">
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="50"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="48" t="s">
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="47"/>
+      <c r="M57" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="B58" s="49">
+      <c r="B58" s="46">
         <v>35.317700000000002</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49">
+      <c r="C58" s="46"/>
+      <c r="D58" s="46">
         <v>15</v>
       </c>
-      <c r="E58" s="49">
+      <c r="E58" s="46">
         <f t="shared" si="0"/>
         <v>2.3545133333333337</v>
       </c>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="50"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="48" t="s">
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="47"/>
+      <c r="M58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="B59" s="49">
+      <c r="B59" s="46">
         <v>13.5984</v>
       </c>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49" t="str">
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="50"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="48" t="s">
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="47"/>
+      <c r="M59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="B60" s="49">
+      <c r="B60" s="46">
         <v>17.0428</v>
       </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49" t="str">
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="50"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="48" t="s">
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="47"/>
+      <c r="M60" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="B61" s="49">
+      <c r="B61" s="46">
         <v>10.441700000000001</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49" t="str">
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="50"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="48" t="s">
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="47"/>
+      <c r="M61" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="46">
         <v>11.591900000000001</v>
       </c>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49" t="str">
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="50"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="48" t="s">
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="47"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="B63" s="49">
+      <c r="B63" s="46">
         <v>19.076899999999998</v>
       </c>
-      <c r="C63" s="49">
+      <c r="C63" s="46">
         <v>2.5344000000000002</v>
       </c>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49" t="str">
+      <c r="D63" s="46"/>
+      <c r="E63" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="50"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="48" t="s">
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="47"/>
+      <c r="M63" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="46">
         <v>34.215200000000003</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49" t="str">
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="50"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="48" t="s">
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="47"/>
+      <c r="M64" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="B65" s="49">
+      <c r="B65" s="46">
         <v>2.5941000000000001</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49" t="str">
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="50"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="48" t="s">
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="47"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="B66" s="49">
+      <c r="B66" s="46">
         <v>1.9624999999999999</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49" t="str">
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="50"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="48" t="s">
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="47"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="B67" s="49">
+      <c r="B67" s="46">
         <v>5.7183999999999999</v>
       </c>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49" t="str">
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="50"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="48" t="s">
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="47"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="B68" s="49">
+      <c r="B68" s="46">
         <v>9.2249999999999996</v>
       </c>
-      <c r="C68" s="49">
+      <c r="C68" s="46">
         <v>1.9450000000000001</v>
       </c>
-      <c r="D68" s="49">
+      <c r="D68" s="46">
         <v>15</v>
       </c>
-      <c r="E68" s="49">
+      <c r="E68" s="46">
         <f t="shared" si="0"/>
         <v>0.61499999999999999</v>
       </c>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="50"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="47"/>
+      <c r="M68" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="B69" s="49">
+      <c r="B69" s="46">
         <v>38.032499999999999</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49" t="str">
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46" t="str">
         <f t="shared" ref="E69:E73" si="1">IFERROR(B69/D69, "")</f>
         <v/>
       </c>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="50"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="47"/>
+      <c r="M69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="B70" s="49">
+      <c r="B70" s="46">
         <v>50.888100000000001</v>
       </c>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49" t="str">
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="50"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="48" t="s">
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="47"/>
+      <c r="M70" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="B71" s="49">
+      <c r="B71" s="46">
         <v>27.005600000000001</v>
       </c>
-      <c r="C71" s="49">
+      <c r="C71" s="46">
         <v>2.5344000000000002</v>
       </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49" t="str">
+      <c r="D71" s="46"/>
+      <c r="E71" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
-      <c r="L71" s="50"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="48" t="s">
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="47"/>
+      <c r="M71" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="49">
+      <c r="B72" s="46">
         <v>2.2799999999999998</v>
       </c>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49" t="str">
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="50"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="53" t="s">
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="47"/>
+      <c r="M72" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="B73" s="54">
+      <c r="B73" s="51">
         <v>181.69919999999999</v>
       </c>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54" t="str">
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="55"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="52"/>
+      <c r="M73" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K74" s="6"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -3487,24 +3680,29 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D73">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B73">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E73">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:L73">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:L73">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M73">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$C$1</formula>
     </cfRule>
@@ -3516,7 +3714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3535,10 +3733,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="58"/>
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4555,7 +4753,7 @@
       <c r="I62" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:A62"/>
+  <autoFilter ref="A2:A62" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
@@ -4565,7 +4763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -4584,10 +4782,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -5477,7 +5675,7 @@
       <c r="I50" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:A50"/>
+  <autoFilter ref="A2:A50" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
@@ -5487,7 +5685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J216"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -5508,10 +5706,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6736,10 +6934,10 @@
       <c r="I74" s="7"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="35"/>
+      <c r="B75" s="58"/>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7759,10 +7957,10 @@
       <c r="I136" s="3"/>
     </row>
     <row r="139" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="36" t="s">
+      <c r="A139" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="B139" s="36"/>
+      <c r="B139" s="59"/>
     </row>
     <row r="140" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="18" t="s">
@@ -8829,7 +9027,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A188"/>
+  <autoFilter ref="A1:A188" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A75:B75"/>

--- a/Excel/Room Data.xlsx
+++ b/Excel/Room Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\School\Aircon\Aircon\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Aircon\Aircon\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893215DC-BF72-4AB1-97B7-DC661E978E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A232FB34-4BFF-4F82-8927-4353A17E4970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ground Floor" sheetId="1" r:id="rId1"/>
@@ -1420,57 +1420,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1873,27 +1823,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q68" sqref="Q68"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="27" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="21.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="8" width="21.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>163</v>
       </c>
@@ -1902,12 +1852,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="P2">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="53" t="s">
         <v>0</v>
       </c>
@@ -1948,7 +1898,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>193</v>
       </c>
@@ -1975,7 +1925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>194</v>
       </c>
@@ -2003,7 +1953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>195</v>
       </c>
@@ -2029,7 +1979,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>196</v>
       </c>
@@ -2060,7 +2010,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>197</v>
       </c>
@@ -2086,7 +2036,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>141</v>
       </c>
@@ -2110,7 +2060,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>198</v>
       </c>
@@ -2140,7 +2090,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>199</v>
       </c>
@@ -2171,7 +2121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>200</v>
       </c>
@@ -2204,7 +2154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>201</v>
       </c>
@@ -2228,7 +2178,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>202</v>
       </c>
@@ -2253,7 +2203,7 @@
       </c>
       <c r="P14" s="33"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
         <v>203</v>
       </c>
@@ -2274,7 +2224,7 @@
       <c r="K15" s="46"/>
       <c r="L15" s="47"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
         <v>204</v>
       </c>
@@ -2298,7 +2248,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>205</v>
       </c>
@@ -2327,7 +2277,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
         <v>206</v>
       </c>
@@ -2355,7 +2305,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
         <v>207</v>
       </c>
@@ -2381,7 +2331,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>208</v>
       </c>
@@ -2407,7 +2357,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>209</v>
       </c>
@@ -2433,7 +2383,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>210</v>
       </c>
@@ -2455,7 +2405,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>211</v>
       </c>
@@ -2477,7 +2427,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>212</v>
       </c>
@@ -2505,7 +2455,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>213</v>
       </c>
@@ -2526,7 +2476,7 @@
       <c r="K25" s="46"/>
       <c r="L25" s="47"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>214</v>
       </c>
@@ -2549,7 +2499,7 @@
       <c r="K26" s="46"/>
       <c r="L26" s="47"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
         <v>215</v>
       </c>
@@ -2577,7 +2527,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
         <v>216</v>
       </c>
@@ -2605,7 +2555,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>91</v>
       </c>
@@ -2626,7 +2576,7 @@
       <c r="K29" s="46"/>
       <c r="L29" s="47"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>230</v>
       </c>
@@ -2654,7 +2604,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>231</v>
       </c>
@@ -2682,7 +2632,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
         <v>145</v>
       </c>
@@ -2706,7 +2656,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
         <v>144</v>
       </c>
@@ -2730,7 +2680,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
         <v>143</v>
       </c>
@@ -2754,7 +2704,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
         <v>232</v>
       </c>
@@ -2780,7 +2730,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="45" t="s">
         <v>233</v>
       </c>
@@ -2806,7 +2756,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>234</v>
       </c>
@@ -2827,7 +2777,7 @@
       <c r="K37" s="46"/>
       <c r="L37" s="47"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="45" t="s">
         <v>235</v>
       </c>
@@ -2851,7 +2801,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>236</v>
       </c>
@@ -2870,7 +2820,7 @@
       <c r="K39" s="46"/>
       <c r="L39" s="47"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>237</v>
       </c>
@@ -2894,7 +2844,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
         <v>238</v>
       </c>
@@ -2918,7 +2868,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="45" t="s">
         <v>239</v>
       </c>
@@ -2941,7 +2891,7 @@
       <c r="K42" s="46"/>
       <c r="L42" s="47"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="45" t="s">
         <v>240</v>
       </c>
@@ -2965,7 +2915,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
         <v>241</v>
       </c>
@@ -2989,7 +2939,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="45" t="s">
         <v>242</v>
       </c>
@@ -3013,7 +2963,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="45" t="s">
         <v>243</v>
       </c>
@@ -3035,7 +2985,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="s">
         <v>244</v>
       </c>
@@ -3059,7 +3009,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="48" t="s">
         <v>245</v>
       </c>
@@ -3078,7 +3028,7 @@
       <c r="K48" s="46"/>
       <c r="L48" s="47"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="45" t="s">
         <v>246</v>
       </c>
@@ -3102,7 +3052,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="45" t="s">
         <v>247</v>
       </c>
@@ -3123,7 +3073,7 @@
       <c r="K50" s="46"/>
       <c r="L50" s="47"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="45" t="s">
         <v>248</v>
       </c>
@@ -3142,7 +3092,7 @@
       <c r="K51" s="46"/>
       <c r="L51" s="47"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="45" t="s">
         <v>249</v>
       </c>
@@ -3168,7 +3118,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="45" t="s">
         <v>250</v>
       </c>
@@ -3194,7 +3144,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="45" t="s">
         <v>141</v>
       </c>
@@ -3218,7 +3168,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
         <v>67</v>
       </c>
@@ -3240,7 +3190,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="45" t="s">
         <v>251</v>
       </c>
@@ -3261,7 +3211,7 @@
       <c r="K56" s="46"/>
       <c r="L56" s="47"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="45" t="s">
         <v>252</v>
       </c>
@@ -3285,7 +3235,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="45" t="s">
         <v>253</v>
       </c>
@@ -3311,7 +3261,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="45" t="s">
         <v>254</v>
       </c>
@@ -3335,7 +3285,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="45" t="s">
         <v>142</v>
       </c>
@@ -3359,7 +3309,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="45" t="s">
         <v>229</v>
       </c>
@@ -3383,7 +3333,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="45" t="s">
         <v>228</v>
       </c>
@@ -3404,7 +3354,7 @@
       <c r="K62" s="46"/>
       <c r="L62" s="47"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="45" t="s">
         <v>227</v>
       </c>
@@ -3430,7 +3380,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="45" t="s">
         <v>226</v>
       </c>
@@ -3454,7 +3404,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="45" t="s">
         <v>225</v>
       </c>
@@ -3475,7 +3425,7 @@
       <c r="K65" s="46"/>
       <c r="L65" s="47"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="45" t="s">
         <v>224</v>
       </c>
@@ -3496,7 +3446,7 @@
       <c r="K66" s="46"/>
       <c r="L66" s="47"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="45" t="s">
         <v>223</v>
       </c>
@@ -3517,7 +3467,7 @@
       <c r="K67" s="46"/>
       <c r="L67" s="47"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="45" t="s">
         <v>222</v>
       </c>
@@ -3545,7 +3495,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="45" t="s">
         <v>221</v>
       </c>
@@ -3569,7 +3519,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="45" t="s">
         <v>220</v>
       </c>
@@ -3593,7 +3543,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="45" t="s">
         <v>219</v>
       </c>
@@ -3619,7 +3569,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="45" t="s">
         <v>218</v>
       </c>
@@ -3643,7 +3593,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="50" t="s">
         <v>217</v>
       </c>
@@ -3667,10 +3617,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K74" s="6"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -3680,25 +3630,25 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D73">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B73">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E73">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:L73">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:L73">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$C$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3721,25 +3671,25 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="5" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="58"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -3768,7 +3718,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -3787,7 +3737,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3806,7 +3756,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -3825,7 +3775,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -3844,7 +3794,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
@@ -3863,7 +3813,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -3882,7 +3832,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
@@ -3895,7 +3845,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>86</v>
       </c>
@@ -3914,7 +3864,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>75</v>
       </c>
@@ -3933,7 +3883,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>76</v>
       </c>
@@ -3952,7 +3902,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
@@ -3967,7 +3917,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>78</v>
       </c>
@@ -3980,7 +3930,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>79</v>
       </c>
@@ -3999,7 +3949,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
@@ -4014,7 +3964,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>81</v>
       </c>
@@ -4029,7 +3979,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>82</v>
       </c>
@@ -4044,7 +3994,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
@@ -4063,7 +4013,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
@@ -4082,7 +4032,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>85</v>
       </c>
@@ -4101,7 +4051,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>87</v>
       </c>
@@ -4116,7 +4066,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>88</v>
       </c>
@@ -4135,7 +4085,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>89</v>
       </c>
@@ -4150,7 +4100,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
@@ -4169,7 +4119,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>91</v>
       </c>
@@ -4182,7 +4132,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>93</v>
       </c>
@@ -4201,7 +4151,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>90</v>
       </c>
@@ -4220,7 +4170,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>94</v>
       </c>
@@ -4239,7 +4189,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>95</v>
       </c>
@@ -4258,7 +4208,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -4271,7 +4221,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>96</v>
       </c>
@@ -4290,7 +4240,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>97</v>
       </c>
@@ -4309,7 +4259,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
@@ -4328,7 +4278,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
@@ -4341,7 +4291,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -4354,7 +4304,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>101</v>
       </c>
@@ -4369,7 +4319,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>102</v>
       </c>
@@ -4384,7 +4334,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>103</v>
       </c>
@@ -4399,7 +4349,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>116</v>
       </c>
@@ -4414,7 +4364,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>104</v>
       </c>
@@ -4429,7 +4379,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>105</v>
       </c>
@@ -4444,7 +4394,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>106</v>
       </c>
@@ -4459,7 +4409,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>107</v>
       </c>
@@ -4474,7 +4424,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>108</v>
       </c>
@@ -4493,7 +4443,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>109</v>
       </c>
@@ -4508,7 +4458,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>110</v>
       </c>
@@ -4523,7 +4473,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -4542,7 +4492,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>112</v>
       </c>
@@ -4555,7 +4505,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>113</v>
       </c>
@@ -4574,7 +4524,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>114</v>
       </c>
@@ -4587,7 +4537,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>115</v>
       </c>
@@ -4602,7 +4552,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>117</v>
       </c>
@@ -4617,7 +4567,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>118</v>
       </c>
@@ -4632,7 +4582,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>80</v>
       </c>
@@ -4645,7 +4595,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>119</v>
       </c>
@@ -4660,7 +4610,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>120</v>
       </c>
@@ -4675,7 +4625,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>121</v>
       </c>
@@ -4690,7 +4640,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>122</v>
       </c>
@@ -4705,7 +4655,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>123</v>
       </c>
@@ -4720,7 +4670,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>124</v>
       </c>
@@ -4733,7 +4683,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>125</v>
       </c>
@@ -4770,24 +4720,24 @@
       <selection activeCell="A50" sqref="A1:I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="5" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="59"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -4816,7 +4766,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -4837,7 +4787,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -4858,7 +4808,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -4873,7 +4823,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -4888,7 +4838,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
@@ -4909,7 +4859,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -4930,7 +4880,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
@@ -4943,7 +4893,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>86</v>
       </c>
@@ -4964,7 +4914,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>75</v>
       </c>
@@ -4985,7 +4935,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>76</v>
       </c>
@@ -5006,7 +4956,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
@@ -5023,7 +4973,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>78</v>
       </c>
@@ -5038,7 +4988,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>79</v>
       </c>
@@ -5057,7 +5007,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
@@ -5074,7 +5024,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>81</v>
       </c>
@@ -5089,7 +5039,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>82</v>
       </c>
@@ -5104,7 +5054,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
@@ -5125,7 +5075,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
@@ -5146,7 +5096,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>85</v>
       </c>
@@ -5167,7 +5117,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>88</v>
       </c>
@@ -5188,7 +5138,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>127</v>
       </c>
@@ -5209,7 +5159,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>92</v>
       </c>
@@ -5230,7 +5180,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
@@ -5251,7 +5201,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>97</v>
       </c>
@@ -5272,7 +5222,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
@@ -5293,7 +5243,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>128</v>
       </c>
@@ -5314,7 +5264,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>129</v>
       </c>
@@ -5335,7 +5285,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -5350,7 +5300,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>130</v>
       </c>
@@ -5371,7 +5321,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>131</v>
       </c>
@@ -5392,7 +5342,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
@@ -5407,7 +5357,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>132</v>
       </c>
@@ -5428,7 +5378,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>133</v>
       </c>
@@ -5449,7 +5399,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>136</v>
       </c>
@@ -5464,7 +5414,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>135</v>
       </c>
@@ -5479,7 +5429,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>134</v>
       </c>
@@ -5494,7 +5444,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>137</v>
       </c>
@@ -5509,7 +5459,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>99</v>
       </c>
@@ -5522,7 +5472,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>138</v>
       </c>
@@ -5537,7 +5487,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>139</v>
       </c>
@@ -5552,7 +5502,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>140</v>
       </c>
@@ -5567,7 +5517,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>141</v>
       </c>
@@ -5582,7 +5532,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>142</v>
       </c>
@@ -5597,7 +5547,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>67</v>
       </c>
@@ -5612,7 +5562,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>143</v>
       </c>
@@ -5627,7 +5577,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>144</v>
       </c>
@@ -5642,7 +5592,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>145</v>
       </c>
@@ -5657,7 +5607,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>146</v>
       </c>
@@ -5692,27 +5642,27 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="21.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="5" max="6" width="21.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="57"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -5744,7 +5694,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -5760,7 +5710,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -5780,7 +5730,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -5798,7 +5748,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -5816,7 +5766,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -5836,7 +5786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -5854,7 +5804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -5876,7 +5826,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -5896,7 +5846,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
@@ -5918,7 +5868,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -5934,7 +5884,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -5950,7 +5900,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
@@ -5966,7 +5916,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -5982,7 +5932,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
@@ -5998,7 +5948,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -6018,7 +5968,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
@@ -6034,7 +5984,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>148</v>
       </c>
@@ -6050,7 +6000,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>149</v>
       </c>
@@ -6068,7 +6018,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
@@ -6084,7 +6034,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>150</v>
       </c>
@@ -6100,7 +6050,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>18</v>
       </c>
@@ -6120,7 +6070,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
@@ -6134,7 +6084,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>20</v>
       </c>
@@ -6152,7 +6102,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
@@ -6172,7 +6122,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -6192,7 +6142,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
@@ -6208,7 +6158,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>25</v>
       </c>
@@ -6228,7 +6178,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>24</v>
       </c>
@@ -6248,7 +6198,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>26</v>
       </c>
@@ -6264,7 +6214,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>27</v>
       </c>
@@ -6280,7 +6230,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>28</v>
       </c>
@@ -6296,7 +6246,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>29</v>
       </c>
@@ -6314,7 +6264,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>30</v>
       </c>
@@ -6330,7 +6280,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>31</v>
       </c>
@@ -6346,7 +6296,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>32</v>
       </c>
@@ -6362,7 +6312,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>152</v>
       </c>
@@ -6378,7 +6328,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>34</v>
       </c>
@@ -6394,7 +6344,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>33</v>
       </c>
@@ -6410,7 +6360,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>35</v>
       </c>
@@ -6428,7 +6378,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>36</v>
       </c>
@@ -6444,7 +6394,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>38</v>
       </c>
@@ -6460,7 +6410,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>37</v>
       </c>
@@ -6476,7 +6426,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>39</v>
       </c>
@@ -6490,7 +6440,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>40</v>
       </c>
@@ -6506,7 +6456,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>41</v>
       </c>
@@ -6522,7 +6472,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>42</v>
       </c>
@@ -6538,7 +6488,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>43</v>
       </c>
@@ -6554,7 +6504,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>44</v>
       </c>
@@ -6570,7 +6520,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>45</v>
       </c>
@@ -6586,7 +6536,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>46</v>
       </c>
@@ -6602,7 +6552,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>47</v>
       </c>
@@ -6620,7 +6570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>48</v>
       </c>
@@ -6634,7 +6584,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>49</v>
       </c>
@@ -6650,7 +6600,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>50</v>
       </c>
@@ -6666,7 +6616,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>51</v>
       </c>
@@ -6682,7 +6632,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>52</v>
       </c>
@@ -6698,7 +6648,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>53</v>
       </c>
@@ -6716,7 +6666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>54</v>
       </c>
@@ -6732,7 +6682,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>153</v>
       </c>
@@ -6748,7 +6698,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>55</v>
       </c>
@@ -6766,7 +6716,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>56</v>
       </c>
@@ -6782,7 +6732,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>57</v>
       </c>
@@ -6798,7 +6748,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>58</v>
       </c>
@@ -6814,7 +6764,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>59</v>
       </c>
@@ -6830,7 +6780,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>60</v>
       </c>
@@ -6848,7 +6798,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>61</v>
       </c>
@@ -6864,7 +6814,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>62</v>
       </c>
@@ -6880,7 +6830,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>63</v>
       </c>
@@ -6898,7 +6848,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>64</v>
       </c>
@@ -6914,7 +6864,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>65</v>
       </c>
@@ -6930,17 +6880,17 @@
       <c r="I73" s="2"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I74" s="7"/>
     </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="58" t="s">
         <v>66</v>
       </c>
       <c r="B75" s="58"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
         <v>0</v>
       </c>
@@ -6972,7 +6922,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>69</v>
       </c>
@@ -6991,7 +6941,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>68</v>
       </c>
@@ -7010,7 +6960,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>70</v>
       </c>
@@ -7029,7 +6979,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>71</v>
       </c>
@@ -7048,7 +6998,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>73</v>
       </c>
@@ -7067,7 +7017,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>72</v>
       </c>
@@ -7086,7 +7036,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>74</v>
       </c>
@@ -7099,7 +7049,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
@@ -7118,7 +7068,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>75</v>
       </c>
@@ -7137,7 +7087,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>76</v>
       </c>
@@ -7156,7 +7106,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>77</v>
       </c>
@@ -7171,7 +7121,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>78</v>
       </c>
@@ -7184,7 +7134,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>79</v>
       </c>
@@ -7203,7 +7153,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>80</v>
       </c>
@@ -7218,7 +7168,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>81</v>
       </c>
@@ -7233,7 +7183,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>82</v>
       </c>
@@ -7248,7 +7198,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>84</v>
       </c>
@@ -7267,7 +7217,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>83</v>
       </c>
@@ -7286,7 +7236,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>85</v>
       </c>
@@ -7305,7 +7255,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>87</v>
       </c>
@@ -7320,7 +7270,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>88</v>
       </c>
@@ -7339,7 +7289,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>89</v>
       </c>
@@ -7354,7 +7304,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -7373,7 +7323,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>91</v>
       </c>
@@ -7386,7 +7336,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>93</v>
       </c>
@@ -7405,7 +7355,7 @@
       <c r="H101" s="4"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>90</v>
       </c>
@@ -7424,7 +7374,7 @@
       <c r="H102" s="4"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>94</v>
       </c>
@@ -7443,7 +7393,7 @@
       <c r="H103" s="4"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>95</v>
       </c>
@@ -7462,7 +7412,7 @@
       <c r="H104" s="4"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>67</v>
       </c>
@@ -7475,7 +7425,7 @@
       <c r="H105" s="4"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>96</v>
       </c>
@@ -7494,7 +7444,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>97</v>
       </c>
@@ -7513,7 +7463,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>98</v>
       </c>
@@ -7532,7 +7482,7 @@
       <c r="H108" s="4"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>99</v>
       </c>
@@ -7545,7 +7495,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>100</v>
       </c>
@@ -7558,7 +7508,7 @@
       <c r="H110" s="4"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>101</v>
       </c>
@@ -7573,7 +7523,7 @@
       <c r="H111" s="4"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>102</v>
       </c>
@@ -7588,7 +7538,7 @@
       <c r="H112" s="4"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>103</v>
       </c>
@@ -7603,7 +7553,7 @@
       <c r="H113" s="4"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>116</v>
       </c>
@@ -7618,7 +7568,7 @@
       <c r="H114" s="4"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>104</v>
       </c>
@@ -7633,7 +7583,7 @@
       <c r="H115" s="4"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>105</v>
       </c>
@@ -7648,7 +7598,7 @@
       <c r="H116" s="4"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>106</v>
       </c>
@@ -7663,7 +7613,7 @@
       <c r="H117" s="4"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>107</v>
       </c>
@@ -7678,7 +7628,7 @@
       <c r="H118" s="4"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>108</v>
       </c>
@@ -7697,7 +7647,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>109</v>
       </c>
@@ -7712,7 +7662,7 @@
       <c r="H120" s="4"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>110</v>
       </c>
@@ -7727,7 +7677,7 @@
       <c r="H121" s="4"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>111</v>
       </c>
@@ -7746,7 +7696,7 @@
       <c r="H122" s="4"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>112</v>
       </c>
@@ -7759,7 +7709,7 @@
       <c r="H123" s="4"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>113</v>
       </c>
@@ -7778,7 +7728,7 @@
       <c r="H124" s="4"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>114</v>
       </c>
@@ -7791,7 +7741,7 @@
       <c r="H125" s="4"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>115</v>
       </c>
@@ -7806,7 +7756,7 @@
       <c r="H126" s="4"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>117</v>
       </c>
@@ -7821,7 +7771,7 @@
       <c r="H127" s="4"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>118</v>
       </c>
@@ -7836,7 +7786,7 @@
       <c r="H128" s="4"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>80</v>
       </c>
@@ -7849,7 +7799,7 @@
       <c r="H129" s="4"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>119</v>
       </c>
@@ -7864,7 +7814,7 @@
       <c r="H130" s="4"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>120</v>
       </c>
@@ -7879,7 +7829,7 @@
       <c r="H131" s="4"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>121</v>
       </c>
@@ -7894,7 +7844,7 @@
       <c r="H132" s="4"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>122</v>
       </c>
@@ -7909,7 +7859,7 @@
       <c r="H133" s="4"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>123</v>
       </c>
@@ -7924,7 +7874,7 @@
       <c r="H134" s="4"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>124</v>
       </c>
@@ -7937,7 +7887,7 @@
       <c r="H135" s="4"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>125</v>
       </c>
@@ -7956,13 +7906,13 @@
       <c r="H136" s="5"/>
       <c r="I136" s="3"/>
     </row>
-    <row r="139" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="59" t="s">
         <v>126</v>
       </c>
       <c r="B139" s="59"/>
     </row>
-    <row r="140" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="18" t="s">
         <v>0</v>
       </c>
@@ -7994,7 +7944,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>69</v>
       </c>
@@ -8015,7 +7965,7 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>68</v>
       </c>
@@ -8036,7 +7986,7 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>70</v>
       </c>
@@ -8051,7 +8001,7 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>71</v>
       </c>
@@ -8066,7 +8016,7 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>73</v>
       </c>
@@ -8087,7 +8037,7 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>72</v>
       </c>
@@ -8108,7 +8058,7 @@
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>74</v>
       </c>
@@ -8121,7 +8071,7 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>86</v>
       </c>
@@ -8142,7 +8092,7 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>75</v>
       </c>
@@ -8163,7 +8113,7 @@
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>76</v>
       </c>
@@ -8184,7 +8134,7 @@
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>77</v>
       </c>
@@ -8201,7 +8151,7 @@
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>78</v>
       </c>
@@ -8216,7 +8166,7 @@
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>79</v>
       </c>
@@ -8235,7 +8185,7 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>80</v>
       </c>
@@ -8252,7 +8202,7 @@
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>81</v>
       </c>
@@ -8267,7 +8217,7 @@
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>82</v>
       </c>
@@ -8282,7 +8232,7 @@
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>84</v>
       </c>
@@ -8303,7 +8253,7 @@
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>83</v>
       </c>
@@ -8324,7 +8274,7 @@
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>85</v>
       </c>
@@ -8345,7 +8295,7 @@
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="17" t="s">
         <v>88</v>
       </c>
@@ -8366,7 +8316,7 @@
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
         <v>127</v>
       </c>
@@ -8387,7 +8337,7 @@
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="17" t="s">
         <v>92</v>
       </c>
@@ -8408,7 +8358,7 @@
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>93</v>
       </c>
@@ -8429,7 +8379,7 @@
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>97</v>
       </c>
@@ -8450,7 +8400,7 @@
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>98</v>
       </c>
@@ -8471,7 +8421,7 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>128</v>
       </c>
@@ -8492,7 +8442,7 @@
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>129</v>
       </c>
@@ -8513,7 +8463,7 @@
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>91</v>
       </c>
@@ -8528,7 +8478,7 @@
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>130</v>
       </c>
@@ -8549,7 +8499,7 @@
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>131</v>
       </c>
@@ -8570,7 +8520,7 @@
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>67</v>
       </c>
@@ -8585,7 +8535,7 @@
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>132</v>
       </c>
@@ -8606,7 +8556,7 @@
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>133</v>
       </c>
@@ -8627,7 +8577,7 @@
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>136</v>
       </c>
@@ -8642,7 +8592,7 @@
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>135</v>
       </c>
@@ -8657,7 +8607,7 @@
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>134</v>
       </c>
@@ -8672,7 +8622,7 @@
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>137</v>
       </c>
@@ -8687,7 +8637,7 @@
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>99</v>
       </c>
@@ -8700,7 +8650,7 @@
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>138</v>
       </c>
@@ -8715,7 +8665,7 @@
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>139</v>
       </c>
@@ -8730,7 +8680,7 @@
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>140</v>
       </c>
@@ -8745,7 +8695,7 @@
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>141</v>
       </c>
@@ -8763,7 +8713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>142</v>
       </c>
@@ -8781,7 +8731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>67</v>
       </c>
@@ -8796,7 +8746,7 @@
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>143</v>
       </c>
@@ -8811,7 +8761,7 @@
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>144</v>
       </c>
@@ -8826,7 +8776,7 @@
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>145</v>
       </c>
@@ -8841,7 +8791,7 @@
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>146</v>
       </c>
@@ -8858,7 +8808,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>167</v>
       </c>
@@ -8866,7 +8816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>168</v>
       </c>
@@ -8874,7 +8824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>169</v>
       </c>
@@ -8882,7 +8832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>170</v>
       </c>
@@ -8890,7 +8840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>171</v>
       </c>
@@ -8898,7 +8848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>172</v>
       </c>
@@ -8906,7 +8856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>173</v>
       </c>
@@ -8914,7 +8864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>174</v>
       </c>
@@ -8922,7 +8872,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>176</v>
       </c>
@@ -8930,7 +8880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>177</v>
       </c>
@@ -8938,7 +8888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>178</v>
       </c>
@@ -8946,7 +8896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>179</v>
       </c>
@@ -8954,7 +8904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>180</v>
       </c>
@@ -8962,7 +8912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>181</v>
       </c>
@@ -8970,7 +8920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>182</v>
       </c>
@@ -8978,7 +8928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>183</v>
       </c>
@@ -8986,7 +8936,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>185</v>
       </c>
@@ -8994,7 +8944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>186</v>
       </c>
@@ -9002,7 +8952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>187</v>
       </c>
@@ -9010,7 +8960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>188</v>
       </c>
@@ -9018,7 +8968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>189</v>
       </c>

--- a/Excel/Room Data.xlsx
+++ b/Excel/Room Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Aircon\Aircon\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A232FB34-4BFF-4F82-8927-4353A17E4970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841159E1-E369-443B-9144-FD8682864EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23895" yWindow="480" windowWidth="13830" windowHeight="8475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ground Floor" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ground Floor'!$A$3:$L$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ground Floor (2)'!$A$1:$A$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Second Floor'!$A$2:$A$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Third Floor'!$A$2:$A$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Second Floor'!$A$2:$A$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Third Floor'!$A$2:$A$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="265">
   <si>
     <t>Name of Room</t>
   </si>
@@ -861,6 +861,12 @@
   </si>
   <si>
     <t xml:space="preserve">fix </t>
+  </si>
+  <si>
+    <t>Temp.</t>
+  </si>
+  <si>
+    <t>Temp</t>
   </si>
 </sst>
 </file>
@@ -1823,22 +1829,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="8" width="21.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="21.5546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" customWidth="1"/>
     <col min="13" max="13" width="19.33203125" customWidth="1"/>
   </cols>
@@ -1917,7 +1923,9 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
+      <c r="L4" s="44">
+        <v>22.5</v>
+      </c>
       <c r="M4" t="s">
         <v>257</v>
       </c>
@@ -1948,7 +1956,9 @@
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
       <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
+      <c r="L5" s="47">
+        <v>22.5</v>
+      </c>
       <c r="P5">
         <v>36</v>
       </c>
@@ -1974,7 +1984,9 @@
       <c r="I6" s="46"/>
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
-      <c r="L6" s="47"/>
+      <c r="L6" s="47">
+        <v>24</v>
+      </c>
       <c r="P6">
         <v>62</v>
       </c>
@@ -2002,7 +2014,9 @@
       <c r="I7" s="46"/>
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
+      <c r="L7" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M7" t="s">
         <v>258</v>
       </c>
@@ -2031,7 +2045,9 @@
       <c r="I8" s="46"/>
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
+      <c r="L8" s="47">
+        <v>24</v>
+      </c>
       <c r="M8" t="s">
         <v>259</v>
       </c>
@@ -2055,7 +2071,9 @@
       <c r="I9" s="46"/>
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
+      <c r="L9" s="47">
+        <v>24</v>
+      </c>
       <c r="M9" t="s">
         <v>259</v>
       </c>
@@ -2085,7 +2103,9 @@
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
       <c r="K10" s="46"/>
-      <c r="L10" s="47"/>
+      <c r="L10" s="47">
+        <v>22</v>
+      </c>
       <c r="M10" t="s">
         <v>260</v>
       </c>
@@ -2113,7 +2133,9 @@
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
       <c r="K11" s="46"/>
-      <c r="L11" s="47"/>
+      <c r="L11" s="47">
+        <v>24</v>
+      </c>
       <c r="M11" t="s">
         <v>256</v>
       </c>
@@ -2146,7 +2168,9 @@
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
       <c r="K12" s="46"/>
-      <c r="L12" s="47"/>
+      <c r="L12" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M12" t="s">
         <v>260</v>
       </c>
@@ -2173,7 +2197,9 @@
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
+      <c r="L13" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M13" t="s">
         <v>260</v>
       </c>
@@ -2197,7 +2223,9 @@
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
       <c r="K14" s="46"/>
-      <c r="L14" s="47"/>
+      <c r="L14" s="47">
+        <v>24</v>
+      </c>
       <c r="M14" t="s">
         <v>260</v>
       </c>
@@ -2222,7 +2250,9 @@
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
+      <c r="L15" s="47">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
@@ -2243,7 +2273,9 @@
       <c r="I16" s="46"/>
       <c r="J16" s="46"/>
       <c r="K16" s="46"/>
-      <c r="L16" s="47"/>
+      <c r="L16" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M16" t="s">
         <v>260</v>
       </c>
@@ -2269,7 +2301,9 @@
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
-      <c r="L17" s="47"/>
+      <c r="L17" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M17" t="s">
         <v>260</v>
       </c>
@@ -2300,7 +2334,9 @@
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
+      <c r="L18" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M18" t="s">
         <v>260</v>
       </c>
@@ -2326,7 +2362,9 @@
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
       <c r="K19" s="46"/>
-      <c r="L19" s="47"/>
+      <c r="L19" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M19" t="s">
         <v>260</v>
       </c>
@@ -2352,7 +2390,9 @@
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
       <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
+      <c r="L20" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M20" t="s">
         <v>261</v>
       </c>
@@ -2378,7 +2418,9 @@
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
       <c r="K21" s="46"/>
-      <c r="L21" s="47"/>
+      <c r="L21" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M21" t="s">
         <v>260</v>
       </c>
@@ -2497,7 +2539,9 @@
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
       <c r="K26" s="46"/>
-      <c r="L26" s="47"/>
+      <c r="L26" s="47">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
@@ -2522,7 +2566,9 @@
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
       <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
+      <c r="L27" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M27" t="s">
         <v>256</v>
       </c>
@@ -2550,7 +2596,9 @@
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
       <c r="K28" s="46"/>
-      <c r="L28" s="47"/>
+      <c r="L28" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M28" t="s">
         <v>256</v>
       </c>
@@ -2574,7 +2622,9 @@
       <c r="I29" s="46"/>
       <c r="J29" s="46"/>
       <c r="K29" s="46"/>
-      <c r="L29" s="47"/>
+      <c r="L29" s="47">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
@@ -2599,7 +2649,9 @@
       <c r="I30" s="46"/>
       <c r="J30" s="46"/>
       <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
+      <c r="L30" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M30" t="s">
         <v>256</v>
       </c>
@@ -2627,7 +2679,9 @@
       <c r="I31" s="46"/>
       <c r="J31" s="46"/>
       <c r="K31" s="46"/>
-      <c r="L31" s="47"/>
+      <c r="L31" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M31" t="s">
         <v>256</v>
       </c>
@@ -2651,7 +2705,9 @@
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
       <c r="K32" s="46"/>
-      <c r="L32" s="47"/>
+      <c r="L32" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M32" t="s">
         <v>256</v>
       </c>
@@ -2675,7 +2731,9 @@
       <c r="I33" s="46"/>
       <c r="J33" s="46"/>
       <c r="K33" s="46"/>
-      <c r="L33" s="47"/>
+      <c r="L33" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M33" t="s">
         <v>256</v>
       </c>
@@ -2699,7 +2757,9 @@
       <c r="I34" s="46"/>
       <c r="J34" s="46"/>
       <c r="K34" s="46"/>
-      <c r="L34" s="47"/>
+      <c r="L34" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M34" t="s">
         <v>256</v>
       </c>
@@ -2725,7 +2785,9 @@
       <c r="I35" s="46"/>
       <c r="J35" s="46"/>
       <c r="K35" s="46"/>
-      <c r="L35" s="47"/>
+      <c r="L35" s="47">
+        <v>24</v>
+      </c>
       <c r="M35" t="s">
         <v>261</v>
       </c>
@@ -2751,7 +2813,9 @@
       <c r="I36" s="46"/>
       <c r="J36" s="46"/>
       <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
+      <c r="L36" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M36" t="s">
         <v>260</v>
       </c>
@@ -2775,7 +2839,9 @@
       <c r="I37" s="46"/>
       <c r="J37" s="46"/>
       <c r="K37" s="46"/>
-      <c r="L37" s="47"/>
+      <c r="L37" s="47">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="45" t="s">
@@ -2796,7 +2862,9 @@
       <c r="I38" s="46"/>
       <c r="J38" s="46"/>
       <c r="K38" s="46"/>
-      <c r="L38" s="47"/>
+      <c r="L38" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M38" t="s">
         <v>261</v>
       </c>
@@ -2839,7 +2907,9 @@
       <c r="I40" s="46"/>
       <c r="J40" s="46"/>
       <c r="K40" s="46"/>
-      <c r="L40" s="47"/>
+      <c r="L40" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M40" t="s">
         <v>256</v>
       </c>
@@ -2863,7 +2933,9 @@
       <c r="I41" s="46"/>
       <c r="J41" s="46"/>
       <c r="K41" s="46"/>
-      <c r="L41" s="47"/>
+      <c r="L41" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M41" t="s">
         <v>256</v>
       </c>
@@ -2889,7 +2961,9 @@
       <c r="I42" s="46"/>
       <c r="J42" s="46"/>
       <c r="K42" s="46"/>
-      <c r="L42" s="47"/>
+      <c r="L42" s="47">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="45" t="s">
@@ -2910,7 +2984,9 @@
       <c r="I43" s="46"/>
       <c r="J43" s="46"/>
       <c r="K43" s="46"/>
-      <c r="L43" s="47"/>
+      <c r="L43" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M43" t="s">
         <v>260</v>
       </c>
@@ -2934,7 +3010,9 @@
       <c r="I44" s="46"/>
       <c r="J44" s="46"/>
       <c r="K44" s="46"/>
-      <c r="L44" s="47"/>
+      <c r="L44" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M44" t="s">
         <v>256</v>
       </c>
@@ -2958,7 +3036,9 @@
       <c r="I45" s="46"/>
       <c r="J45" s="46"/>
       <c r="K45" s="46"/>
-      <c r="L45" s="47"/>
+      <c r="L45" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M45" t="s">
         <v>256</v>
       </c>
@@ -2980,7 +3060,9 @@
       <c r="I46" s="46"/>
       <c r="J46" s="46"/>
       <c r="K46" s="46"/>
-      <c r="L46" s="47"/>
+      <c r="L46" s="47">
+        <v>28</v>
+      </c>
       <c r="M46" t="s">
         <v>262</v>
       </c>
@@ -3004,7 +3086,9 @@
       <c r="I47" s="46"/>
       <c r="J47" s="46"/>
       <c r="K47" s="46"/>
-      <c r="L47" s="47"/>
+      <c r="L47" s="47">
+        <v>24</v>
+      </c>
       <c r="M47" t="s">
         <v>262</v>
       </c>
@@ -3047,7 +3131,9 @@
       <c r="I49" s="46"/>
       <c r="J49" s="46"/>
       <c r="K49" s="46"/>
-      <c r="L49" s="47"/>
+      <c r="L49" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M49" t="s">
         <v>261</v>
       </c>
@@ -3071,7 +3157,9 @@
       <c r="I50" s="46"/>
       <c r="J50" s="46"/>
       <c r="K50" s="46"/>
-      <c r="L50" s="47"/>
+      <c r="L50" s="47">
+        <v>24</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="45" t="s">
@@ -3090,7 +3178,9 @@
       <c r="I51" s="46"/>
       <c r="J51" s="46"/>
       <c r="K51" s="46"/>
-      <c r="L51" s="47"/>
+      <c r="L51" s="47">
+        <v>24</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="45" t="s">
@@ -3113,7 +3203,9 @@
       <c r="I52" s="46"/>
       <c r="J52" s="46"/>
       <c r="K52" s="46"/>
-      <c r="L52" s="47"/>
+      <c r="L52" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M52" t="s">
         <v>260</v>
       </c>
@@ -3139,7 +3231,9 @@
       <c r="I53" s="46"/>
       <c r="J53" s="46"/>
       <c r="K53" s="46"/>
-      <c r="L53" s="47"/>
+      <c r="L53" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M53" t="s">
         <v>260</v>
       </c>
@@ -3163,7 +3257,9 @@
       <c r="I54" s="46"/>
       <c r="J54" s="46"/>
       <c r="K54" s="46"/>
-      <c r="L54" s="47"/>
+      <c r="L54" s="47">
+        <v>24</v>
+      </c>
       <c r="M54" t="s">
         <v>259</v>
       </c>
@@ -3209,7 +3305,9 @@
       <c r="I56" s="46"/>
       <c r="J56" s="46"/>
       <c r="K56" s="46"/>
-      <c r="L56" s="47"/>
+      <c r="L56" s="47">
+        <v>24</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="45" t="s">
@@ -3230,7 +3328,9 @@
       <c r="I57" s="46"/>
       <c r="J57" s="46"/>
       <c r="K57" s="46"/>
-      <c r="L57" s="47"/>
+      <c r="L57" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M57" t="s">
         <v>258</v>
       </c>
@@ -3256,7 +3356,9 @@
       <c r="I58" s="46"/>
       <c r="J58" s="46"/>
       <c r="K58" s="46"/>
-      <c r="L58" s="47"/>
+      <c r="L58" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M58" t="s">
         <v>260</v>
       </c>
@@ -3280,7 +3382,9 @@
       <c r="I59" s="46"/>
       <c r="J59" s="46"/>
       <c r="K59" s="46"/>
-      <c r="L59" s="47"/>
+      <c r="L59" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M59" t="s">
         <v>260</v>
       </c>
@@ -3304,7 +3408,9 @@
       <c r="I60" s="46"/>
       <c r="J60" s="46"/>
       <c r="K60" s="46"/>
-      <c r="L60" s="47"/>
+      <c r="L60" s="47">
+        <v>24</v>
+      </c>
       <c r="M60" t="s">
         <v>259</v>
       </c>
@@ -3328,7 +3434,9 @@
       <c r="I61" s="46"/>
       <c r="J61" s="46"/>
       <c r="K61" s="46"/>
-      <c r="L61" s="47"/>
+      <c r="L61" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M61" t="s">
         <v>256</v>
       </c>
@@ -3352,7 +3460,9 @@
       <c r="I62" s="46"/>
       <c r="J62" s="46"/>
       <c r="K62" s="46"/>
-      <c r="L62" s="47"/>
+      <c r="L62" s="47">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="45" t="s">
@@ -3375,7 +3485,9 @@
       <c r="I63" s="46"/>
       <c r="J63" s="46"/>
       <c r="K63" s="46"/>
-      <c r="L63" s="47"/>
+      <c r="L63" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M63" t="s">
         <v>260</v>
       </c>
@@ -3399,7 +3511,9 @@
       <c r="I64" s="46"/>
       <c r="J64" s="46"/>
       <c r="K64" s="46"/>
-      <c r="L64" s="47"/>
+      <c r="L64" s="47">
+        <v>24</v>
+      </c>
       <c r="M64" t="s">
         <v>260</v>
       </c>
@@ -3423,7 +3537,9 @@
       <c r="I65" s="46"/>
       <c r="J65" s="46"/>
       <c r="K65" s="46"/>
-      <c r="L65" s="47"/>
+      <c r="L65" s="47">
+        <v>24</v>
+      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="45" t="s">
@@ -3444,7 +3560,9 @@
       <c r="I66" s="46"/>
       <c r="J66" s="46"/>
       <c r="K66" s="46"/>
-      <c r="L66" s="47"/>
+      <c r="L66" s="47">
+        <v>24</v>
+      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="45" t="s">
@@ -3465,7 +3583,9 @@
       <c r="I67" s="46"/>
       <c r="J67" s="46"/>
       <c r="K67" s="46"/>
-      <c r="L67" s="47"/>
+      <c r="L67" s="47">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="45" t="s">
@@ -3490,7 +3610,9 @@
       <c r="I68" s="46"/>
       <c r="J68" s="46"/>
       <c r="K68" s="46"/>
-      <c r="L68" s="47"/>
+      <c r="L68" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M68" t="s">
         <v>260</v>
       </c>
@@ -3514,7 +3636,9 @@
       <c r="I69" s="46"/>
       <c r="J69" s="46"/>
       <c r="K69" s="46"/>
-      <c r="L69" s="47"/>
+      <c r="L69" s="47">
+        <v>22.5</v>
+      </c>
       <c r="M69" t="s">
         <v>261</v>
       </c>
@@ -3538,7 +3662,9 @@
       <c r="I70" s="46"/>
       <c r="J70" s="46"/>
       <c r="K70" s="46"/>
-      <c r="L70" s="47"/>
+      <c r="L70" s="47">
+        <v>24</v>
+      </c>
       <c r="M70" t="s">
         <v>260</v>
       </c>
@@ -3564,7 +3690,9 @@
       <c r="I71" s="46"/>
       <c r="J71" s="46"/>
       <c r="K71" s="46"/>
-      <c r="L71" s="47"/>
+      <c r="L71" s="47">
+        <v>24</v>
+      </c>
       <c r="M71" t="s">
         <v>261</v>
       </c>
@@ -3588,7 +3716,9 @@
       <c r="I72" s="46"/>
       <c r="J72" s="46"/>
       <c r="K72" s="46"/>
-      <c r="L72" s="47"/>
+      <c r="L72" s="47">
+        <v>24</v>
+      </c>
       <c r="M72" t="s">
         <v>261</v>
       </c>
@@ -3612,7 +3742,9 @@
       <c r="I73" s="51"/>
       <c r="J73" s="51"/>
       <c r="K73" s="51"/>
-      <c r="L73" s="52"/>
+      <c r="L73" s="52">
+        <v>24</v>
+      </c>
       <c r="M73" t="s">
         <v>260</v>
       </c>
@@ -3665,31 +3797,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.109375" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="6" width="21.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="21.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="58"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -3717,8 +3849,11 @@
       <c r="I2" s="16" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -3736,8 +3871,11 @@
       <c r="G3" s="2"/>
       <c r="H3" s="4"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3755,8 +3893,11 @@
       <c r="G4" s="2"/>
       <c r="H4" s="4"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -3774,8 +3915,11 @@
       <c r="G5" s="2"/>
       <c r="H5" s="4"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -3793,8 +3937,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="4"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
@@ -3812,8 +3959,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="4"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -3831,45 +3981,60 @@
       <c r="G8" s="2"/>
       <c r="H8" s="4"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B9" s="2">
+        <v>13.6738</v>
+      </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="4">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="4"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2">
-        <v>13.6738</v>
+        <v>13.9206</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="4"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2">
-        <v>13.9206</v>
+        <v>13.875400000000001</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
@@ -3882,33 +4047,33 @@
       <c r="G11" s="2"/>
       <c r="H11" s="4"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2">
-        <v>13.875400000000001</v>
+        <v>30.712</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2">
-        <v>25</v>
-      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="4"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="2">
-        <v>30.712</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -3916,45 +4081,56 @@
       <c r="G13" s="2"/>
       <c r="H13" s="4"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="B14" s="2">
+        <v>17.941299999999998</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="4">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>15</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2">
-        <v>17.941299999999998</v>
+        <v>22.829000000000001</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2">
-        <v>15</v>
-      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2">
-        <v>22.829000000000001</v>
+        <v>4.7869000000000002</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3963,13 +4139,16 @@
       <c r="G16" s="2"/>
       <c r="H16" s="4"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" s="2">
-        <v>4.7869000000000002</v>
+        <v>2.4581</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3978,28 +4157,38 @@
       <c r="G17" s="2"/>
       <c r="H17" s="4"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B18" s="2">
-        <v>2.4581</v>
+        <v>13.8735</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="4">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2">
+        <v>25</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="4"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="2">
-        <v>13.8735</v>
+        <v>13.892799999999999</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4">
@@ -4012,132 +4201,156 @@
       <c r="G19" s="2"/>
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2">
-        <v>13.892799999999999</v>
+        <v>13.7066</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="4"/>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B21" s="2">
-        <v>13.7066</v>
+        <v>11.052199999999999</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2">
-        <v>15</v>
-      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="4"/>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" s="2">
-        <v>11.052199999999999</v>
+        <v>13.6813</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="4">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2">
+        <v>25</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="4"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2">
-        <v>13.6813</v>
+        <v>18.7319</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4">
-        <v>13</v>
-      </c>
-      <c r="E23" s="2">
-        <v>25</v>
-      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="4"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B24" s="2">
-        <v>18.7319</v>
+        <v>25.372</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="4">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2">
+        <v>25</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="4"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="2">
-        <v>25.372</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="4">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2">
-        <v>25</v>
-      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="4"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B26" s="2">
+        <v>25.48</v>
+      </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="4">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2">
+        <v>25</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="4"/>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B27" s="2">
-        <v>25.48</v>
+        <v>13.751200000000001</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4">
@@ -4150,83 +4363,98 @@
       <c r="G27" s="2"/>
       <c r="H27" s="4"/>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B28" s="2">
-        <v>13.751200000000001</v>
+        <v>38.453699999999998</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="E28" s="2">
-        <v>25</v>
+        <v>0.3</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="4"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B29" s="2">
-        <v>38.453699999999998</v>
+        <v>25.372</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4">
-        <v>2.5</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2">
-        <v>0.3</v>
+        <v>25</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="4"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="2">
-        <v>25.372</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4">
-        <v>13</v>
-      </c>
-      <c r="E30" s="2">
-        <v>25</v>
-      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="4"/>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B31" s="2">
+        <v>25.48</v>
+      </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="4">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2">
+        <v>25</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="4"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B32" s="2">
-        <v>25.48</v>
+        <v>13.751200000000001</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4">
@@ -4239,10 +4467,13 @@
       <c r="G32" s="2"/>
       <c r="H32" s="4"/>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2">
         <v>13.751200000000001</v>
@@ -4258,31 +4489,35 @@
       <c r="G33" s="2"/>
       <c r="H33" s="4"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" s="2">
-        <v>13.751200000000001</v>
+        <v>21.361599999999999</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2">
-        <v>25</v>
-      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="4"/>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="B35" s="2">
+        <v>31.438800000000001</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="2"/>
@@ -4290,12 +4525,17 @@
       <c r="G35" s="2"/>
       <c r="H35" s="4"/>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="B36" s="2">
+        <v>34.986199999999997</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
@@ -4303,13 +4543,16 @@
       <c r="G36" s="2"/>
       <c r="H36" s="4"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B37" s="2">
-        <v>21.361599999999999</v>
+        <v>5.4111000000000002</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -4318,13 +4561,16 @@
       <c r="G37" s="2"/>
       <c r="H37" s="4"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B38" s="2">
-        <v>31.438800000000001</v>
+        <v>25.7486</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -4333,13 +4579,16 @@
       <c r="G38" s="2"/>
       <c r="H38" s="4"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B39" s="2">
-        <v>34.986199999999997</v>
+        <v>16.799399999999999</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -4348,13 +4597,16 @@
       <c r="G39" s="2"/>
       <c r="H39" s="4"/>
       <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B40" s="2">
-        <v>5.4111000000000002</v>
+        <v>16.799900000000001</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -4363,13 +4615,16 @@
       <c r="G40" s="2"/>
       <c r="H40" s="4"/>
       <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B41" s="2">
-        <v>25.7486</v>
+        <v>10.2258</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -4378,28 +4633,38 @@
       <c r="G41" s="2"/>
       <c r="H41" s="4"/>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B42" s="2">
-        <v>16.799399999999999</v>
+        <v>19.000699999999998</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
+      <c r="D42" s="4">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2">
+        <v>15</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="4"/>
       <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B43" s="2">
-        <v>16.799900000000001</v>
+        <v>14.987500000000001</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -4408,13 +4673,16 @@
       <c r="G43" s="2"/>
       <c r="H43" s="4"/>
       <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B44" s="2">
-        <v>10.2258</v>
+        <v>21.6006</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -4423,13 +4691,16 @@
       <c r="G44" s="2"/>
       <c r="H44" s="4"/>
       <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B45" s="2">
-        <v>19.000699999999998</v>
+        <v>23.600300000000001</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4">
@@ -4442,29 +4713,37 @@
       <c r="G45" s="2"/>
       <c r="H45" s="4"/>
       <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B46" s="2">
-        <v>14.987500000000001</v>
+        <v>35.042499999999997</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="2"/>
+      <c r="D46" s="4">
+        <v>15</v>
+      </c>
+      <c r="E46" s="2">
+        <v>30</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="4"/>
       <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" s="2">
-        <v>21.6006</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="2"/>
@@ -4472,31 +4751,35 @@
       <c r="G47" s="2"/>
       <c r="H47" s="4"/>
       <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B48" s="2">
-        <v>23.600300000000001</v>
+        <v>5.6912000000000003</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="4">
-        <v>8</v>
-      </c>
-      <c r="E48" s="2">
-        <v>15</v>
-      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="4"/>
       <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4.1337999999999999</v>
+      </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="2"/>
@@ -4504,29 +4787,31 @@
       <c r="G49" s="2"/>
       <c r="H49" s="4"/>
       <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B50" s="2">
-        <v>35.042499999999997</v>
+        <v>12.91</v>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="4">
-        <v>15</v>
-      </c>
-      <c r="E50" s="2">
-        <v>30</v>
-      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="4"/>
       <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="4"/>
@@ -4536,13 +4821,16 @@
       <c r="G51" s="2"/>
       <c r="H51" s="4"/>
       <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B52" s="2">
-        <v>5.6912000000000003</v>
+        <v>7.4783999999999997</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -4551,13 +4839,16 @@
       <c r="G52" s="2"/>
       <c r="H52" s="4"/>
       <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B53" s="2">
-        <v>4.1337999999999999</v>
+        <v>17.520700000000001</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -4566,13 +4857,16 @@
       <c r="G53" s="2"/>
       <c r="H53" s="4"/>
       <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B54" s="2">
-        <v>12.91</v>
+        <v>2.8</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -4581,12 +4875,17 @@
       <c r="G54" s="2"/>
       <c r="H54" s="4"/>
       <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2.8</v>
+      </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="2"/>
@@ -4594,13 +4893,16 @@
       <c r="G55" s="2"/>
       <c r="H55" s="4"/>
       <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B56" s="2">
-        <v>7.4783999999999997</v>
+        <v>2.8</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -4609,14 +4911,15 @@
       <c r="G56" s="2"/>
       <c r="H56" s="4"/>
       <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="2">
-        <v>17.520700000000001</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="2"/>
@@ -4624,86 +4927,34 @@
       <c r="G57" s="2"/>
       <c r="H57" s="4"/>
       <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+      <c r="J57">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B58" s="3">
         <v>46.974200000000003</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E58" s="3">
         <v>15</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="3"/>
+      <c r="J58">
+        <v>22.5</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:A62" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:A58" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
@@ -4714,30 +4965,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A50" sqref="A1:I50"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.109375" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="6" width="21.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="21.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="59"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -4765,8 +5016,11 @@
       <c r="I2" s="16" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -4786,8 +5040,11 @@
       <c r="G3" s="4"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -4807,8 +5064,11 @@
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -4822,8 +5082,11 @@
       <c r="G5" s="4"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -4837,8 +5100,11 @@
       <c r="G6" s="4"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
@@ -4858,8 +5124,11 @@
       <c r="G7" s="4"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -4879,50 +5148,67 @@
       <c r="G8" s="4"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10.1393</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.6221999999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B10" s="4">
-        <v>10.1393</v>
+        <v>13.9222</v>
       </c>
       <c r="C10" s="2">
-        <v>2.6221999999999999</v>
+        <v>2.6154999999999999</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
-        <v>13.9222</v>
+        <v>13.873799999999999</v>
       </c>
       <c r="C11" s="2">
-        <v>2.6154999999999999</v>
+        <v>2.6185999999999998</v>
       </c>
       <c r="D11" s="2">
         <v>13</v>
@@ -4934,38 +5220,38 @@
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4">
-        <v>13.873799999999999</v>
+        <v>30.712</v>
       </c>
       <c r="C12" s="2">
-        <v>2.6185999999999998</v>
-      </c>
-      <c r="D12" s="2">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2">
-        <v>25</v>
-      </c>
+        <v>2.6374</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="4">
-        <v>30.712</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2.6374</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
@@ -4973,63 +5259,72 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>151</v>
+        <v>79</v>
+      </c>
+      <c r="B14" s="4">
+        <v>17.941299999999998</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>15</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="4">
-        <v>17.941299999999998</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2">
-        <v>15</v>
-      </c>
+        <v>22.829000000000001</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.415</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="4">
-        <v>22.829000000000001</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2.415</v>
-      </c>
+        <v>4.7869000000000002</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" s="4">
-        <v>4.7869000000000002</v>
+        <v>2.4581</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -5038,28 +5333,40 @@
       <c r="G17" s="4"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B18" s="4">
-        <v>2.4581</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+        <v>13.8735</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.6175000000000002</v>
+      </c>
+      <c r="D18" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2">
+        <v>25</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="4">
-        <v>13.8735</v>
+        <v>13.892799999999999</v>
       </c>
       <c r="C19" s="2">
         <v>2.6175000000000002</v>
@@ -5074,52 +5381,61 @@
       <c r="G19" s="4"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B20" s="4">
-        <v>13.892799999999999</v>
+        <v>10.1716</v>
       </c>
       <c r="C20" s="2">
-        <v>2.6175000000000002</v>
+        <v>2.6213000000000002</v>
       </c>
       <c r="D20" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>85</v>
+      <c r="J20">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="B21" s="4">
-        <v>10.1716</v>
+        <v>15.8619</v>
       </c>
       <c r="C21" s="2">
-        <v>2.6213000000000002</v>
+        <v>2.64</v>
       </c>
       <c r="D21" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="B22" s="4">
         <v>15.8619</v>
@@ -5137,13 +5453,16 @@
       <c r="G22" s="4"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B23" s="4">
-        <v>15.8619</v>
+        <v>24.783000000000001</v>
       </c>
       <c r="C23" s="2">
         <v>2.64</v>
@@ -5158,13 +5477,16 @@
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>92</v>
+      <c r="J23">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B24" s="4">
-        <v>24.783000000000001</v>
+        <v>24.890899999999998</v>
       </c>
       <c r="C24" s="2">
         <v>2.64</v>
@@ -5179,13 +5501,16 @@
       <c r="G24" s="4"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B25" s="4">
-        <v>24.890899999999998</v>
+        <v>13.6813</v>
       </c>
       <c r="C25" s="2">
         <v>2.64</v>
@@ -5200,13 +5525,16 @@
       <c r="G25" s="4"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" s="4">
-        <v>13.6813</v>
+        <v>13.751200000000001</v>
       </c>
       <c r="C26" s="2">
         <v>2.64</v>
@@ -5221,13 +5549,16 @@
       <c r="G26" s="4"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B27" s="4">
-        <v>13.751200000000001</v>
+        <v>16.011199999999999</v>
       </c>
       <c r="C27" s="2">
         <v>2.64</v>
@@ -5242,10 +5573,13 @@
       <c r="G27" s="4"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B28" s="4">
         <v>16.011199999999999</v>
@@ -5263,46 +5597,55 @@
       <c r="G28" s="4"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="B29" s="4">
-        <v>16.011199999999999</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2.64</v>
-      </c>
-      <c r="D29" s="2">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2">
-        <v>25</v>
-      </c>
+        <v>8.9650999999999996</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="B30" s="4">
-        <v>8.9650999999999996</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+        <v>13.751200000000001</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="D30" s="2">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2">
+        <v>25</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B31" s="4">
         <v>13.751200000000001</v>
@@ -5320,49 +5663,58 @@
       <c r="G31" s="4"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="B32" s="4">
-        <v>13.751200000000001</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2.64</v>
-      </c>
-      <c r="D32" s="2">
-        <v>13</v>
-      </c>
-      <c r="E32" s="2">
-        <v>25</v>
-      </c>
+        <v>23.482900000000001</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="B33" s="4">
-        <v>23.482900000000001</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+        <v>10.757199999999999</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="D33" s="2">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2">
+        <v>25</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" s="4">
-        <v>10.757199999999999</v>
+        <v>11.315</v>
       </c>
       <c r="C34" s="2">
         <v>2.64</v>
@@ -5377,34 +5729,34 @@
       <c r="G34" s="4"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B35" s="4">
-        <v>11.315</v>
-      </c>
-      <c r="C35" s="2">
-        <v>2.64</v>
-      </c>
-      <c r="D35" s="2">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2">
-        <v>25</v>
-      </c>
+        <v>13.308299999999999</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="4">
-        <v>13.308299999999999</v>
+        <v>11.087199999999999</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5414,12 +5766,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" s="4">
-        <v>11.087199999999999</v>
+        <v>8.2750000000000004</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5429,12 +5781,12 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B38" s="4">
-        <v>8.2750000000000004</v>
+        <v>13.467499999999999</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5443,14 +5795,15 @@
       <c r="G38" s="4"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="4">
-        <v>13.467499999999999</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -5459,11 +5812,13 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="B40" s="4">
+        <v>183.94380000000001</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -5471,13 +5826,16 @@
       <c r="G40" s="4"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" s="4">
-        <v>183.94380000000001</v>
+        <v>139</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5486,13 +5844,16 @@
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
+      </c>
+      <c r="B42" s="4">
+        <v>58.860100000000003</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5501,13 +5862,16 @@
       <c r="G42" s="4"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B43" s="4">
-        <v>58.860100000000003</v>
+        <v>17.4452</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5516,13 +5880,16 @@
       <c r="G43" s="4"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B44" s="4">
-        <v>17.4452</v>
+        <v>17.480599999999999</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5531,13 +5898,16 @@
       <c r="G44" s="4"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="B45" s="4">
-        <v>17.480599999999999</v>
+        <v>43.5914</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5546,13 +5916,16 @@
       <c r="G45" s="4"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="B46" s="4">
-        <v>43.5914</v>
+        <v>10.900600000000001</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5561,13 +5934,16 @@
       <c r="G46" s="4"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B47" s="4">
-        <v>10.900600000000001</v>
+        <v>10.783099999999999</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5576,13 +5952,16 @@
       <c r="G47" s="4"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B48" s="4">
-        <v>10.783099999999999</v>
+        <v>9.4162999999999997</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5591,41 +5970,32 @@
       <c r="G48" s="4"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" s="4">
-        <v>9.4162999999999997</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+      <c r="J48">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B49" s="5">
         <v>26.995799999999999</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C49" s="3">
         <v>2.3994</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:A50" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A2:A49" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
@@ -5638,7 +6008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J216"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Room Data.xlsx
+++ b/Excel/Room Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Aircon\Aircon\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\School\Aircon\Aircon\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841159E1-E369-443B-9144-FD8682864EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4734E34-832B-482F-AE45-94225458F50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23895" yWindow="480" windowWidth="13830" windowHeight="8475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ground Floor" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ground Floor'!$A$3:$L$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ground Floor (2)'!$A$1:$A$188</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Second Floor'!$A$2:$A$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Third Floor'!$A$2:$A$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Third Floor'!$A$2:$A$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="265">
   <si>
     <t>Name of Room</t>
   </si>
@@ -1833,23 +1833,23 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="27" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="21.5546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="7" max="8" width="21.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>163</v>
       </c>
@@ -1858,12 +1858,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P2">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>193</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>194</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>195</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>196</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>197</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>141</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>198</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>199</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>200</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>201</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>202</v>
       </c>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="P14" s="33"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>203</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>204</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>205</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>206</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>207</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>208</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>209</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>210</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>211</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>212</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>213</v>
       </c>
@@ -2518,7 +2518,7 @@
       <c r="K25" s="46"/>
       <c r="L25" s="47"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>214</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>215</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>216</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>91</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>230</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>231</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>145</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>144</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>143</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>232</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>233</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>234</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
         <v>235</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>236</v>
       </c>
@@ -2888,7 +2888,7 @@
       <c r="K39" s="46"/>
       <c r="L39" s="47"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>237</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
         <v>238</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
         <v>239</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
         <v>240</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
         <v>241</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
         <v>242</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
         <v>243</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
         <v>244</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
         <v>245</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="K48" s="46"/>
       <c r="L48" s="47"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
         <v>246</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
         <v>247</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
         <v>248</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
         <v>249</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
         <v>250</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
         <v>141</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>67</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="45" t="s">
         <v>251</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
         <v>252</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="45" t="s">
         <v>253</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
         <v>254</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="45" t="s">
         <v>142</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="45" t="s">
         <v>229</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="45" t="s">
         <v>228</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="45" t="s">
         <v>227</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="45" t="s">
         <v>226</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="45" t="s">
         <v>225</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="45" t="s">
         <v>224</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="45" t="s">
         <v>223</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="45" t="s">
         <v>222</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="45" t="s">
         <v>221</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
         <v>220</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="45" t="s">
         <v>219</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="45" t="s">
         <v>218</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="50" t="s">
         <v>217</v>
       </c>
@@ -3749,10 +3749,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K74" s="6"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -3799,29 +3799,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:J50"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A16:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="21.5546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="21.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="58"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>78</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>80</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>81</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>83</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>85</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>87</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>88</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>89</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>91</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>93</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>90</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>94</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>95</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>67</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>96</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>98</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>101</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>102</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>103</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>116</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>105</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>106</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>107</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>108</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>109</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>110</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>111</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>113</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>114</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>115</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>117</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>118</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>80</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>119</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>120</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>121</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>122</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>123</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>124</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>125</v>
       </c>
@@ -4965,30 +4965,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="21.5546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="21.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="59"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -5020,7 +5021,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -5044,7 +5045,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -5068,7 +5069,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -5104,7 +5105,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
@@ -5128,7 +5129,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -5152,7 +5153,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -5176,7 +5177,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -5200,7 +5201,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -5244,7 +5245,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>78</v>
       </c>
@@ -5259,7 +5260,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
@@ -5281,7 +5282,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>80</v>
       </c>
@@ -5301,7 +5302,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>81</v>
       </c>
@@ -5316,10 +5317,10 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -5334,10 +5335,10 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -5361,7 +5362,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>83</v>
       </c>
@@ -5385,7 +5386,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>85</v>
       </c>
@@ -5409,7 +5410,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>88</v>
       </c>
@@ -5433,7 +5434,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>127</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>92</v>
       </c>
@@ -5481,7 +5482,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
@@ -5505,7 +5506,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>97</v>
       </c>
@@ -5529,7 +5530,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>98</v>
       </c>
@@ -5553,7 +5554,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>128</v>
       </c>
@@ -5577,7 +5578,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>129</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>91</v>
       </c>
@@ -5615,11 +5616,8 @@
       <c r="G29" s="4"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>130</v>
       </c>
@@ -5643,7 +5641,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>131</v>
       </c>
@@ -5667,7 +5665,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
@@ -5685,7 +5683,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>132</v>
       </c>
@@ -5709,7 +5707,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>133</v>
       </c>
@@ -5733,7 +5731,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>136</v>
       </c>
@@ -5751,12 +5749,12 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B36" s="4">
-        <v>11.087199999999999</v>
+        <v>13.467499999999999</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5765,13 +5763,16 @@
       <c r="G36" s="4"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B37" s="4">
-        <v>8.2750000000000004</v>
+        <v>183.94380000000001</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5780,13 +5781,16 @@
       <c r="G37" s="4"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="4">
-        <v>13.467499999999999</v>
+        <v>139</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5796,14 +5800,16 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="B39" s="4">
+        <v>58.860100000000003</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -5811,13 +5817,16 @@
       <c r="G39" s="4"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B40" s="4">
-        <v>183.94380000000001</v>
+        <v>17.4452</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5830,12 +5839,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="B41" s="4">
+        <v>17.480599999999999</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5848,12 +5857,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="B42" s="4">
-        <v>58.860100000000003</v>
+        <v>43.5914</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5863,15 +5872,15 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B43" s="4">
-        <v>17.4452</v>
+        <v>10.900600000000001</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5881,15 +5890,15 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B44" s="4">
-        <v>17.480599999999999</v>
+        <v>10.783099999999999</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5899,15 +5908,15 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="B45" s="4">
-        <v>43.5914</v>
+        <v>9.4162999999999997</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5920,82 +5929,28 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" s="4">
-        <v>10.900600000000001</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="5">
+        <v>26.995799999999999</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2.3994</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
       <c r="J46">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="4">
-        <v>10.783099999999999</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B48" s="4">
-        <v>9.4162999999999997</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" s="5">
-        <v>26.995799999999999</v>
-      </c>
-      <c r="C49" s="3">
-        <v>2.3994</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:A49" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A2:A46" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
@@ -6012,27 +5967,27 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="21.5546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="5" max="6" width="21.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="57"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -6064,7 +6019,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -6080,7 +6035,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -6100,7 +6055,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -6118,7 +6073,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -6136,7 +6091,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -6156,7 +6111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -6174,7 +6129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -6196,7 +6151,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -6216,7 +6171,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
@@ -6238,7 +6193,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -6254,7 +6209,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -6270,7 +6225,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
@@ -6286,7 +6241,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -6302,7 +6257,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
@@ -6318,7 +6273,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -6338,7 +6293,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
@@ -6354,7 +6309,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>148</v>
       </c>
@@ -6370,7 +6325,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>149</v>
       </c>
@@ -6388,7 +6343,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
@@ -6404,7 +6359,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>150</v>
       </c>
@@ -6420,7 +6375,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>18</v>
       </c>
@@ -6440,7 +6395,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
@@ -6454,7 +6409,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>20</v>
       </c>
@@ -6472,7 +6427,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
@@ -6492,7 +6447,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -6512,7 +6467,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
@@ -6528,7 +6483,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>25</v>
       </c>
@@ -6548,7 +6503,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>24</v>
       </c>
@@ -6568,7 +6523,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>26</v>
       </c>
@@ -6584,7 +6539,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>27</v>
       </c>
@@ -6600,7 +6555,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>28</v>
       </c>
@@ -6616,7 +6571,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>29</v>
       </c>
@@ -6634,7 +6589,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>30</v>
       </c>
@@ -6650,7 +6605,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>31</v>
       </c>
@@ -6666,7 +6621,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>32</v>
       </c>
@@ -6682,7 +6637,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>152</v>
       </c>
@@ -6698,7 +6653,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>34</v>
       </c>
@@ -6714,7 +6669,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>33</v>
       </c>
@@ -6730,7 +6685,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>35</v>
       </c>
@@ -6748,7 +6703,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>36</v>
       </c>
@@ -6764,7 +6719,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>38</v>
       </c>
@@ -6780,7 +6735,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>37</v>
       </c>
@@ -6796,7 +6751,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>39</v>
       </c>
@@ -6810,7 +6765,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>40</v>
       </c>
@@ -6826,7 +6781,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>41</v>
       </c>
@@ -6842,7 +6797,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>42</v>
       </c>
@@ -6858,7 +6813,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>43</v>
       </c>
@@ -6874,7 +6829,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>44</v>
       </c>
@@ -6890,7 +6845,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>45</v>
       </c>
@@ -6906,7 +6861,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>46</v>
       </c>
@@ -6922,7 +6877,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>47</v>
       </c>
@@ -6940,7 +6895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>48</v>
       </c>
@@ -6954,7 +6909,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>49</v>
       </c>
@@ -6970,7 +6925,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>50</v>
       </c>
@@ -6986,7 +6941,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>51</v>
       </c>
@@ -7002,7 +6957,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>52</v>
       </c>
@@ -7018,7 +6973,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>53</v>
       </c>
@@ -7036,7 +6991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>54</v>
       </c>
@@ -7052,7 +7007,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>153</v>
       </c>
@@ -7068,7 +7023,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>55</v>
       </c>
@@ -7086,7 +7041,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>56</v>
       </c>
@@ -7102,7 +7057,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>57</v>
       </c>
@@ -7118,7 +7073,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>58</v>
       </c>
@@ -7134,7 +7089,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>59</v>
       </c>
@@ -7150,7 +7105,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>60</v>
       </c>
@@ -7168,7 +7123,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>61</v>
       </c>
@@ -7184,7 +7139,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>62</v>
       </c>
@@ -7200,7 +7155,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>63</v>
       </c>
@@ -7218,7 +7173,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>64</v>
       </c>
@@ -7234,7 +7189,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>65</v>
       </c>
@@ -7250,17 +7205,17 @@
       <c r="I73" s="2"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I74" s="7"/>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="58" t="s">
         <v>66</v>
       </c>
       <c r="B75" s="58"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18" t="s">
         <v>0</v>
       </c>
@@ -7292,7 +7247,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>69</v>
       </c>
@@ -7311,7 +7266,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>68</v>
       </c>
@@ -7330,7 +7285,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>70</v>
       </c>
@@ -7349,7 +7304,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>71</v>
       </c>
@@ -7368,7 +7323,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>73</v>
       </c>
@@ -7387,7 +7342,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>72</v>
       </c>
@@ -7406,7 +7361,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>74</v>
       </c>
@@ -7419,7 +7374,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
@@ -7438,7 +7393,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>75</v>
       </c>
@@ -7457,7 +7412,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>76</v>
       </c>
@@ -7476,7 +7431,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>77</v>
       </c>
@@ -7491,7 +7446,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>78</v>
       </c>
@@ -7504,7 +7459,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>79</v>
       </c>
@@ -7523,7 +7478,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>80</v>
       </c>
@@ -7538,7 +7493,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>81</v>
       </c>
@@ -7553,7 +7508,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>82</v>
       </c>
@@ -7568,7 +7523,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>84</v>
       </c>
@@ -7587,7 +7542,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>83</v>
       </c>
@@ -7606,7 +7561,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>85</v>
       </c>
@@ -7625,7 +7580,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>87</v>
       </c>
@@ -7640,7 +7595,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>88</v>
       </c>
@@ -7659,7 +7614,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>89</v>
       </c>
@@ -7674,7 +7629,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -7693,7 +7648,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>91</v>
       </c>
@@ -7706,7 +7661,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>93</v>
       </c>
@@ -7725,7 +7680,7 @@
       <c r="H101" s="4"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>90</v>
       </c>
@@ -7744,7 +7699,7 @@
       <c r="H102" s="4"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>94</v>
       </c>
@@ -7763,7 +7718,7 @@
       <c r="H103" s="4"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>95</v>
       </c>
@@ -7782,7 +7737,7 @@
       <c r="H104" s="4"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>67</v>
       </c>
@@ -7795,7 +7750,7 @@
       <c r="H105" s="4"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>96</v>
       </c>
@@ -7814,7 +7769,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>97</v>
       </c>
@@ -7833,7 +7788,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>98</v>
       </c>
@@ -7852,7 +7807,7 @@
       <c r="H108" s="4"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>99</v>
       </c>
@@ -7865,7 +7820,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>100</v>
       </c>
@@ -7878,7 +7833,7 @@
       <c r="H110" s="4"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>101</v>
       </c>
@@ -7893,7 +7848,7 @@
       <c r="H111" s="4"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>102</v>
       </c>
@@ -7908,7 +7863,7 @@
       <c r="H112" s="4"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>103</v>
       </c>
@@ -7923,7 +7878,7 @@
       <c r="H113" s="4"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>116</v>
       </c>
@@ -7938,7 +7893,7 @@
       <c r="H114" s="4"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>104</v>
       </c>
@@ -7953,7 +7908,7 @@
       <c r="H115" s="4"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>105</v>
       </c>
@@ -7968,7 +7923,7 @@
       <c r="H116" s="4"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>106</v>
       </c>
@@ -7983,7 +7938,7 @@
       <c r="H117" s="4"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>107</v>
       </c>
@@ -7998,7 +7953,7 @@
       <c r="H118" s="4"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>108</v>
       </c>
@@ -8017,7 +7972,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>109</v>
       </c>
@@ -8032,7 +7987,7 @@
       <c r="H120" s="4"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>110</v>
       </c>
@@ -8047,7 +8002,7 @@
       <c r="H121" s="4"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>111</v>
       </c>
@@ -8066,7 +8021,7 @@
       <c r="H122" s="4"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>112</v>
       </c>
@@ -8079,7 +8034,7 @@
       <c r="H123" s="4"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>113</v>
       </c>
@@ -8098,7 +8053,7 @@
       <c r="H124" s="4"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>114</v>
       </c>
@@ -8111,7 +8066,7 @@
       <c r="H125" s="4"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>115</v>
       </c>
@@ -8126,7 +8081,7 @@
       <c r="H126" s="4"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>117</v>
       </c>
@@ -8141,7 +8096,7 @@
       <c r="H127" s="4"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>118</v>
       </c>
@@ -8156,7 +8111,7 @@
       <c r="H128" s="4"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>80</v>
       </c>
@@ -8169,7 +8124,7 @@
       <c r="H129" s="4"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>119</v>
       </c>
@@ -8184,7 +8139,7 @@
       <c r="H130" s="4"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>120</v>
       </c>
@@ -8199,7 +8154,7 @@
       <c r="H131" s="4"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>121</v>
       </c>
@@ -8214,7 +8169,7 @@
       <c r="H132" s="4"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>122</v>
       </c>
@@ -8229,7 +8184,7 @@
       <c r="H133" s="4"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>123</v>
       </c>
@@ -8244,7 +8199,7 @@
       <c r="H134" s="4"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>124</v>
       </c>
@@ -8257,7 +8212,7 @@
       <c r="H135" s="4"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>125</v>
       </c>
@@ -8276,13 +8231,13 @@
       <c r="H136" s="5"/>
       <c r="I136" s="3"/>
     </row>
-    <row r="139" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="59" t="s">
         <v>126</v>
       </c>
       <c r="B139" s="59"/>
     </row>
-    <row r="140" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="18" t="s">
         <v>0</v>
       </c>
@@ -8314,7 +8269,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>69</v>
       </c>
@@ -8335,7 +8290,7 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>68</v>
       </c>
@@ -8356,7 +8311,7 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>70</v>
       </c>
@@ -8371,7 +8326,7 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>71</v>
       </c>
@@ -8386,7 +8341,7 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>73</v>
       </c>
@@ -8407,7 +8362,7 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>72</v>
       </c>
@@ -8428,7 +8383,7 @@
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>74</v>
       </c>
@@ -8441,7 +8396,7 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>86</v>
       </c>
@@ -8462,7 +8417,7 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>75</v>
       </c>
@@ -8483,7 +8438,7 @@
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>76</v>
       </c>
@@ -8504,7 +8459,7 @@
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>77</v>
       </c>
@@ -8521,7 +8476,7 @@
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>78</v>
       </c>
@@ -8536,7 +8491,7 @@
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>79</v>
       </c>
@@ -8555,7 +8510,7 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>80</v>
       </c>
@@ -8572,7 +8527,7 @@
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>81</v>
       </c>
@@ -8587,7 +8542,7 @@
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>82</v>
       </c>
@@ -8602,7 +8557,7 @@
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>84</v>
       </c>
@@ -8623,7 +8578,7 @@
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>83</v>
       </c>
@@ -8644,7 +8599,7 @@
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>85</v>
       </c>
@@ -8665,7 +8620,7 @@
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
         <v>88</v>
       </c>
@@ -8686,7 +8641,7 @@
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
         <v>127</v>
       </c>
@@ -8707,7 +8662,7 @@
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>92</v>
       </c>
@@ -8728,7 +8683,7 @@
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>93</v>
       </c>
@@ -8749,7 +8704,7 @@
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>97</v>
       </c>
@@ -8770,7 +8725,7 @@
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>98</v>
       </c>
@@ -8791,7 +8746,7 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>128</v>
       </c>
@@ -8812,7 +8767,7 @@
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>129</v>
       </c>
@@ -8833,7 +8788,7 @@
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>91</v>
       </c>
@@ -8848,7 +8803,7 @@
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>130</v>
       </c>
@@ -8869,7 +8824,7 @@
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>131</v>
       </c>
@@ -8890,7 +8845,7 @@
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>67</v>
       </c>
@@ -8905,7 +8860,7 @@
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>132</v>
       </c>
@@ -8926,7 +8881,7 @@
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>133</v>
       </c>
@@ -8947,7 +8902,7 @@
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>136</v>
       </c>
@@ -8962,7 +8917,7 @@
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>135</v>
       </c>
@@ -8977,7 +8932,7 @@
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>134</v>
       </c>
@@ -8992,7 +8947,7 @@
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>137</v>
       </c>
@@ -9007,7 +8962,7 @@
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>99</v>
       </c>
@@ -9020,7 +8975,7 @@
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>138</v>
       </c>
@@ -9035,7 +8990,7 @@
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>139</v>
       </c>
@@ -9050,7 +9005,7 @@
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>140</v>
       </c>
@@ -9065,7 +9020,7 @@
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>141</v>
       </c>
@@ -9083,7 +9038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>142</v>
       </c>
@@ -9101,7 +9056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>67</v>
       </c>
@@ -9116,7 +9071,7 @@
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>143</v>
       </c>
@@ -9131,7 +9086,7 @@
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>144</v>
       </c>
@@ -9146,7 +9101,7 @@
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>145</v>
       </c>
@@ -9161,7 +9116,7 @@
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>146</v>
       </c>
@@ -9178,7 +9133,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>167</v>
       </c>
@@ -9186,7 +9141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>168</v>
       </c>
@@ -9194,7 +9149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>169</v>
       </c>
@@ -9202,7 +9157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>170</v>
       </c>
@@ -9210,7 +9165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>171</v>
       </c>
@@ -9218,7 +9173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>172</v>
       </c>
@@ -9226,7 +9181,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>173</v>
       </c>
@@ -9234,7 +9189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>174</v>
       </c>
@@ -9242,7 +9197,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>176</v>
       </c>
@@ -9250,7 +9205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>177</v>
       </c>
@@ -9258,7 +9213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>178</v>
       </c>
@@ -9266,7 +9221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>179</v>
       </c>
@@ -9274,7 +9229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>180</v>
       </c>
@@ -9282,7 +9237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>181</v>
       </c>
@@ -9290,7 +9245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>182</v>
       </c>
@@ -9298,7 +9253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>183</v>
       </c>
@@ -9306,7 +9261,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>185</v>
       </c>
@@ -9314,7 +9269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>186</v>
       </c>
@@ -9322,7 +9277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>187</v>
       </c>
@@ -9330,7 +9285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>188</v>
       </c>
@@ -9338,7 +9293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>189</v>
       </c>

--- a/Excel/Room Data.xlsx
+++ b/Excel/Room Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\School\Aircon\Aircon\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Aircon\Aircon\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4734E34-832B-482F-AE45-94225458F50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73562F43-7351-4CAF-879E-7143F856F817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ground Floor" sheetId="1" r:id="rId1"/>
@@ -1829,27 +1829,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="27" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="21.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="8" width="21.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>163</v>
       </c>
@@ -1858,12 +1858,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="P2">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="53" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>193</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>194</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>195</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>196</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>197</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>141</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>198</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>199</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>200</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>201</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>202</v>
       </c>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="P14" s="33"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
         <v>203</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
         <v>204</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>205</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
         <v>206</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
         <v>207</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>208</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>209</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>210</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>211</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>212</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>213</v>
       </c>
@@ -2518,7 +2518,7 @@
       <c r="K25" s="46"/>
       <c r="L25" s="47"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>214</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
         <v>215</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
         <v>216</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>91</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>230</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>231</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
         <v>145</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
         <v>144</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
         <v>143</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
         <v>232</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="45" t="s">
         <v>233</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>234</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="45" t="s">
         <v>235</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>236</v>
       </c>
@@ -2888,7 +2888,7 @@
       <c r="K39" s="46"/>
       <c r="L39" s="47"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>237</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
         <v>238</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="45" t="s">
         <v>239</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="45" t="s">
         <v>240</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
         <v>241</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="45" t="s">
         <v>242</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="45" t="s">
         <v>243</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="s">
         <v>244</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="48" t="s">
         <v>245</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="K48" s="46"/>
       <c r="L48" s="47"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="45" t="s">
         <v>246</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="45" t="s">
         <v>247</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="45" t="s">
         <v>248</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="45" t="s">
         <v>249</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="45" t="s">
         <v>250</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="45" t="s">
         <v>141</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
         <v>67</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="45" t="s">
         <v>251</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="45" t="s">
         <v>252</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="45" t="s">
         <v>253</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="45" t="s">
         <v>254</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="45" t="s">
         <v>142</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="45" t="s">
         <v>229</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="45" t="s">
         <v>228</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="45" t="s">
         <v>227</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="45" t="s">
         <v>226</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="45" t="s">
         <v>225</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="45" t="s">
         <v>224</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="45" t="s">
         <v>223</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="45" t="s">
         <v>222</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="45" t="s">
         <v>221</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="45" t="s">
         <v>220</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="45" t="s">
         <v>219</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="45" t="s">
         <v>218</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="50" t="s">
         <v>217</v>
       </c>
@@ -3749,10 +3749,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K74" s="6"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -3803,25 +3803,25 @@
       <selection activeCell="A17" sqref="A16:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="21.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="21.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="58"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>78</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>80</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>81</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>83</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>85</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>87</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>88</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>89</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>91</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>93</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>90</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>94</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>95</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>67</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>96</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>98</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>101</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>102</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>103</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>116</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>105</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>106</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>107</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>108</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>109</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>110</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>111</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>113</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>114</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>115</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>117</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>118</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>80</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>119</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>120</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>121</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>122</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>123</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>124</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>125</v>
       </c>
@@ -4967,29 +4967,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="21.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="21.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="59"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>78</v>
       </c>
@@ -5260,7 +5260,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>80</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>81</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>83</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>85</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>88</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>127</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>92</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>97</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>98</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>128</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>129</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>91</v>
       </c>
@@ -5617,7 +5617,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>130</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>131</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>132</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>133</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>136</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>137</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>138</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>139</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>140</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>141</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>142</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>67</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>143</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>144</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>145</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>146</v>
       </c>
@@ -5967,27 +5967,27 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="21.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="5" max="6" width="21.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="57"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -6035,7 +6035,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -6055,7 +6055,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -6073,7 +6073,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -6091,7 +6091,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -6151,7 +6151,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -6171,7 +6171,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
@@ -6193,7 +6193,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -6209,7 +6209,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -6225,7 +6225,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
@@ -6241,7 +6241,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -6257,7 +6257,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
@@ -6273,7 +6273,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -6293,7 +6293,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
@@ -6309,7 +6309,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>148</v>
       </c>
@@ -6325,7 +6325,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>149</v>
       </c>
@@ -6343,7 +6343,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
@@ -6359,7 +6359,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>150</v>
       </c>
@@ -6375,7 +6375,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>18</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
@@ -6409,7 +6409,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>20</v>
       </c>
@@ -6427,7 +6427,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
@@ -6447,7 +6447,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -6467,7 +6467,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>25</v>
       </c>
@@ -6503,7 +6503,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>24</v>
       </c>
@@ -6523,7 +6523,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>26</v>
       </c>
@@ -6539,7 +6539,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>27</v>
       </c>
@@ -6555,7 +6555,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>28</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>29</v>
       </c>
@@ -6589,7 +6589,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>30</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>31</v>
       </c>
@@ -6621,7 +6621,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>32</v>
       </c>
@@ -6637,7 +6637,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>152</v>
       </c>
@@ -6653,7 +6653,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>34</v>
       </c>
@@ -6669,7 +6669,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>33</v>
       </c>
@@ -6685,7 +6685,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>35</v>
       </c>
@@ -6703,7 +6703,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>36</v>
       </c>
@@ -6719,7 +6719,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>38</v>
       </c>
@@ -6735,7 +6735,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>37</v>
       </c>
@@ -6751,7 +6751,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>39</v>
       </c>
@@ -6765,7 +6765,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>40</v>
       </c>
@@ -6781,7 +6781,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>41</v>
       </c>
@@ -6797,7 +6797,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>42</v>
       </c>
@@ -6813,7 +6813,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>43</v>
       </c>
@@ -6829,7 +6829,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>44</v>
       </c>
@@ -6845,7 +6845,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>45</v>
       </c>
@@ -6861,7 +6861,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>46</v>
       </c>
@@ -6877,7 +6877,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>47</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>48</v>
       </c>
@@ -6909,7 +6909,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>49</v>
       </c>
@@ -6925,7 +6925,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>50</v>
       </c>
@@ -6941,7 +6941,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>51</v>
       </c>
@@ -6957,7 +6957,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>52</v>
       </c>
@@ -6973,7 +6973,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>53</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>54</v>
       </c>
@@ -7007,7 +7007,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>153</v>
       </c>
@@ -7023,7 +7023,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>55</v>
       </c>
@@ -7041,7 +7041,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>56</v>
       </c>
@@ -7057,7 +7057,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>57</v>
       </c>
@@ -7073,7 +7073,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>58</v>
       </c>
@@ -7089,7 +7089,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>59</v>
       </c>
@@ -7105,7 +7105,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>60</v>
       </c>
@@ -7123,7 +7123,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>61</v>
       </c>
@@ -7139,7 +7139,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>62</v>
       </c>
@@ -7155,7 +7155,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>63</v>
       </c>
@@ -7173,7 +7173,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>64</v>
       </c>
@@ -7189,7 +7189,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>65</v>
       </c>
@@ -7205,17 +7205,17 @@
       <c r="I73" s="2"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I74" s="7"/>
     </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="58" t="s">
         <v>66</v>
       </c>
       <c r="B75" s="58"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
         <v>0</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>69</v>
       </c>
@@ -7266,7 +7266,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>68</v>
       </c>
@@ -7285,7 +7285,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>70</v>
       </c>
@@ -7304,7 +7304,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>71</v>
       </c>
@@ -7323,7 +7323,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>73</v>
       </c>
@@ -7342,7 +7342,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>72</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>74</v>
       </c>
@@ -7374,7 +7374,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
@@ -7393,7 +7393,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>75</v>
       </c>
@@ -7412,7 +7412,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>76</v>
       </c>
@@ -7431,7 +7431,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>77</v>
       </c>
@@ -7446,7 +7446,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>78</v>
       </c>
@@ -7459,7 +7459,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>79</v>
       </c>
@@ -7478,7 +7478,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>80</v>
       </c>
@@ -7493,7 +7493,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>81</v>
       </c>
@@ -7508,7 +7508,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>82</v>
       </c>
@@ -7523,7 +7523,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>84</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>83</v>
       </c>
@@ -7561,7 +7561,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>85</v>
       </c>
@@ -7580,7 +7580,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>87</v>
       </c>
@@ -7595,7 +7595,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>88</v>
       </c>
@@ -7614,7 +7614,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>89</v>
       </c>
@@ -7629,7 +7629,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -7648,7 +7648,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>91</v>
       </c>
@@ -7661,7 +7661,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>93</v>
       </c>
@@ -7680,7 +7680,7 @@
       <c r="H101" s="4"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>90</v>
       </c>
@@ -7699,7 +7699,7 @@
       <c r="H102" s="4"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>94</v>
       </c>
@@ -7718,7 +7718,7 @@
       <c r="H103" s="4"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>95</v>
       </c>
@@ -7737,7 +7737,7 @@
       <c r="H104" s="4"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>67</v>
       </c>
@@ -7750,7 +7750,7 @@
       <c r="H105" s="4"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>96</v>
       </c>
@@ -7769,7 +7769,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>97</v>
       </c>
@@ -7788,7 +7788,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>98</v>
       </c>
@@ -7807,7 +7807,7 @@
       <c r="H108" s="4"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>99</v>
       </c>
@@ -7820,7 +7820,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>100</v>
       </c>
@@ -7833,7 +7833,7 @@
       <c r="H110" s="4"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>101</v>
       </c>
@@ -7848,7 +7848,7 @@
       <c r="H111" s="4"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>102</v>
       </c>
@@ -7863,7 +7863,7 @@
       <c r="H112" s="4"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>103</v>
       </c>
@@ -7878,7 +7878,7 @@
       <c r="H113" s="4"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>116</v>
       </c>
@@ -7893,7 +7893,7 @@
       <c r="H114" s="4"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>104</v>
       </c>
@@ -7908,7 +7908,7 @@
       <c r="H115" s="4"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>105</v>
       </c>
@@ -7923,7 +7923,7 @@
       <c r="H116" s="4"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>106</v>
       </c>
@@ -7938,7 +7938,7 @@
       <c r="H117" s="4"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>107</v>
       </c>
@@ -7953,7 +7953,7 @@
       <c r="H118" s="4"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>108</v>
       </c>
@@ -7972,7 +7972,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>109</v>
       </c>
@@ -7987,7 +7987,7 @@
       <c r="H120" s="4"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>110</v>
       </c>
@@ -8002,7 +8002,7 @@
       <c r="H121" s="4"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>111</v>
       </c>
@@ -8021,7 +8021,7 @@
       <c r="H122" s="4"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>112</v>
       </c>
@@ -8034,7 +8034,7 @@
       <c r="H123" s="4"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>113</v>
       </c>
@@ -8053,7 +8053,7 @@
       <c r="H124" s="4"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>114</v>
       </c>
@@ -8066,7 +8066,7 @@
       <c r="H125" s="4"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>115</v>
       </c>
@@ -8081,7 +8081,7 @@
       <c r="H126" s="4"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>117</v>
       </c>
@@ -8096,7 +8096,7 @@
       <c r="H127" s="4"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>118</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="H128" s="4"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>80</v>
       </c>
@@ -8124,7 +8124,7 @@
       <c r="H129" s="4"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>119</v>
       </c>
@@ -8139,7 +8139,7 @@
       <c r="H130" s="4"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>120</v>
       </c>
@@ -8154,7 +8154,7 @@
       <c r="H131" s="4"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>121</v>
       </c>
@@ -8169,7 +8169,7 @@
       <c r="H132" s="4"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>122</v>
       </c>
@@ -8184,7 +8184,7 @@
       <c r="H133" s="4"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>123</v>
       </c>
@@ -8199,7 +8199,7 @@
       <c r="H134" s="4"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>124</v>
       </c>
@@ -8212,7 +8212,7 @@
       <c r="H135" s="4"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>125</v>
       </c>
@@ -8231,13 +8231,13 @@
       <c r="H136" s="5"/>
       <c r="I136" s="3"/>
     </row>
-    <row r="139" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="59" t="s">
         <v>126</v>
       </c>
       <c r="B139" s="59"/>
     </row>
-    <row r="140" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="18" t="s">
         <v>0</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>69</v>
       </c>
@@ -8290,7 +8290,7 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>68</v>
       </c>
@@ -8311,7 +8311,7 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>70</v>
       </c>
@@ -8326,7 +8326,7 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>71</v>
       </c>
@@ -8341,7 +8341,7 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>73</v>
       </c>
@@ -8362,7 +8362,7 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>72</v>
       </c>
@@ -8383,7 +8383,7 @@
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>74</v>
       </c>
@@ -8396,7 +8396,7 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>86</v>
       </c>
@@ -8417,7 +8417,7 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>75</v>
       </c>
@@ -8438,7 +8438,7 @@
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>76</v>
       </c>
@@ -8459,7 +8459,7 @@
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>77</v>
       </c>
@@ -8476,7 +8476,7 @@
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>78</v>
       </c>
@@ -8491,7 +8491,7 @@
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>79</v>
       </c>
@@ -8510,7 +8510,7 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>80</v>
       </c>
@@ -8527,7 +8527,7 @@
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>81</v>
       </c>
@@ -8542,7 +8542,7 @@
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>82</v>
       </c>
@@ -8557,7 +8557,7 @@
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>84</v>
       </c>
@@ -8578,7 +8578,7 @@
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>83</v>
       </c>
@@ -8599,7 +8599,7 @@
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>85</v>
       </c>
@@ -8620,7 +8620,7 @@
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="17" t="s">
         <v>88</v>
       </c>
@@ -8641,7 +8641,7 @@
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
         <v>127</v>
       </c>
@@ -8662,7 +8662,7 @@
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="17" t="s">
         <v>92</v>
       </c>
@@ -8683,7 +8683,7 @@
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>93</v>
       </c>
@@ -8704,7 +8704,7 @@
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>97</v>
       </c>
@@ -8725,7 +8725,7 @@
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>98</v>
       </c>
@@ -8746,7 +8746,7 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>128</v>
       </c>
@@ -8767,7 +8767,7 @@
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>129</v>
       </c>
@@ -8788,7 +8788,7 @@
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>91</v>
       </c>
@@ -8803,7 +8803,7 @@
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>130</v>
       </c>
@@ -8824,7 +8824,7 @@
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>131</v>
       </c>
@@ -8845,7 +8845,7 @@
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>67</v>
       </c>
@@ -8860,7 +8860,7 @@
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>132</v>
       </c>
@@ -8881,7 +8881,7 @@
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>133</v>
       </c>
@@ -8902,7 +8902,7 @@
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>136</v>
       </c>
@@ -8917,7 +8917,7 @@
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>135</v>
       </c>
@@ -8932,7 +8932,7 @@
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>134</v>
       </c>
@@ -8947,7 +8947,7 @@
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>137</v>
       </c>
@@ -8962,7 +8962,7 @@
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>99</v>
       </c>
@@ -8975,7 +8975,7 @@
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>138</v>
       </c>
@@ -8990,7 +8990,7 @@
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>139</v>
       </c>
@@ -9005,7 +9005,7 @@
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>140</v>
       </c>
@@ -9020,7 +9020,7 @@
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>141</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>142</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>67</v>
       </c>
@@ -9071,7 +9071,7 @@
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>143</v>
       </c>
@@ -9086,7 +9086,7 @@
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>144</v>
       </c>
@@ -9101,7 +9101,7 @@
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>145</v>
       </c>
@@ -9116,7 +9116,7 @@
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>146</v>
       </c>
@@ -9133,7 +9133,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>167</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>168</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>169</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>170</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>171</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>172</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>173</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>174</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>176</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>177</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>178</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>179</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>180</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>181</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>182</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>183</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>185</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>186</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>187</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>188</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>189</v>
       </c>
